--- a/feeding choice assay means and SE.xlsx
+++ b/feeding choice assay means and SE.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ric/Documents/GitHub/Invasive_wrack/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61BB5559-461F-994F-8220-B3EADD911B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72481473-AFCA-ED46-B901-7EE7B7C906B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{F7008EFB-90C3-3C4B-AA36-7048E81055E9}"/>
+    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{F7008EFB-90C3-3C4B-AA36-7048E81055E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="24">
   <si>
     <t>line_no.</t>
   </si>
@@ -79,13 +80,43 @@
   <si>
     <t>standard error</t>
   </si>
+  <si>
+    <t>rep_no.</t>
+  </si>
+  <si>
+    <t>algae_Wf</t>
+  </si>
+  <si>
+    <t>algae_CF</t>
+  </si>
+  <si>
+    <t>algae_Wd</t>
+  </si>
+  <si>
+    <t>corrected_i</t>
+  </si>
+  <si>
+    <t>total_consumed</t>
+  </si>
+  <si>
+    <t>none_neg_Wd</t>
+  </si>
+  <si>
+    <t>%_eaten</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -116,9 +147,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,9 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5036B3F0-5B57-D74D-9511-0FDCF6033FB8}">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M120" sqref="M120"/>
-    </sheetView>
+    <sheetView topLeftCell="A88" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2219,4 +2251,5780 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DC5D3B-FAA6-A743-844B-83B6B45D8D8C}">
+  <dimension ref="A1:O233"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>21.066800000000001</v>
+      </c>
+      <c r="F2">
+        <v>9.6</v>
+      </c>
+      <c r="G2">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="H2" s="1">
+        <v>17.670831840000002</v>
+      </c>
+      <c r="I2">
+        <v>8.1</v>
+      </c>
+      <c r="J2">
+        <v>8.1</v>
+      </c>
+      <c r="K2">
+        <f>J2++J18</f>
+        <v>10.5</v>
+      </c>
+      <c r="L2" s="3">
+        <f>(J2/K2)*100</f>
+        <v>77.142857142857139</v>
+      </c>
+      <c r="M2" s="4">
+        <v>77.142857142857139</v>
+      </c>
+      <c r="N2" s="4">
+        <f>AVERAGE(M2:M17)</f>
+        <v>69.691183855005775</v>
+      </c>
+      <c r="O2" s="4">
+        <f>STDEV(M2:M17)/SQRT(COUNT(M2:M17))</f>
+        <v>6.2192213324773409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>19.329000000000001</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>0.6583</v>
+      </c>
+      <c r="H3" s="1">
+        <v>12.7242807</v>
+      </c>
+      <c r="I3">
+        <v>3.7</v>
+      </c>
+      <c r="J3">
+        <v>3.7</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K17" si="0">J3++J19</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L66" si="1">(J3/K3)*100</f>
+        <v>58.73015873015872</v>
+      </c>
+      <c r="M3" s="4">
+        <v>58.73015873015872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>18.065999999999999</v>
+      </c>
+      <c r="F4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G4">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="H4" s="1">
+        <v>18.056967</v>
+      </c>
+      <c r="I4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>11.100000000000001</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="1"/>
+        <v>74.774774774774784</v>
+      </c>
+      <c r="M4" s="4">
+        <v>74.774774774774784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>20.690999999999999</v>
+      </c>
+      <c r="F5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G5">
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="H5" s="1">
+        <v>16.083114299999998</v>
+      </c>
+      <c r="I5">
+        <v>6.9</v>
+      </c>
+      <c r="J5">
+        <v>6.9</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="1"/>
+        <v>78.409090909090907</v>
+      </c>
+      <c r="M5" s="4">
+        <v>78.409090909090907</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>18.8</v>
+      </c>
+      <c r="F6">
+        <v>11.2</v>
+      </c>
+      <c r="G6">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="H6" s="1">
+        <v>18.429639999999999</v>
+      </c>
+      <c r="I6">
+        <v>7.2</v>
+      </c>
+      <c r="J6">
+        <v>7.2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="1"/>
+        <v>73.469387755102034</v>
+      </c>
+      <c r="M6" s="4">
+        <v>73.469387755102034</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>21.792000000000002</v>
+      </c>
+      <c r="F7">
+        <v>6.6</v>
+      </c>
+      <c r="G7">
+        <v>0.87360000000000004</v>
+      </c>
+      <c r="H7" s="1">
+        <v>19.037491200000002</v>
+      </c>
+      <c r="I7">
+        <v>12.4</v>
+      </c>
+      <c r="J7">
+        <v>12.4</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>12.4</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="M7" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>22.823</v>
+      </c>
+      <c r="F8">
+        <v>12.4</v>
+      </c>
+      <c r="G8">
+        <v>0.80789999999999995</v>
+      </c>
+      <c r="H8" s="1">
+        <v>18.438701699999999</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="1"/>
+        <v>64.516129032258064</v>
+      </c>
+      <c r="M8" s="4">
+        <v>64.516129032258064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>18.916</v>
+      </c>
+      <c r="F9">
+        <v>5.6</v>
+      </c>
+      <c r="G9">
+        <v>0.83069999999999999</v>
+      </c>
+      <c r="H9" s="1">
+        <v>15.713521200000001</v>
+      </c>
+      <c r="I9">
+        <v>10.1</v>
+      </c>
+      <c r="J9">
+        <v>10.1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="1"/>
+        <v>91.818181818181813</v>
+      </c>
+      <c r="M9" s="4">
+        <v>91.818181818181813</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>18.727</v>
+      </c>
+      <c r="F10">
+        <v>14.4</v>
+      </c>
+      <c r="G10">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="H10" s="1">
+        <v>18.056573399999998</v>
+      </c>
+      <c r="I10">
+        <v>3.7</v>
+      </c>
+      <c r="J10">
+        <v>3.7</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="1"/>
+        <v>61.666666666666671</v>
+      </c>
+      <c r="M10" s="4">
+        <v>61.666666666666671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>22.437999999999999</v>
+      </c>
+      <c r="F11">
+        <v>16.8</v>
+      </c>
+      <c r="G11">
+        <v>0.80469999999999997</v>
+      </c>
+      <c r="H11" s="1">
+        <v>18.055858599999997</v>
+      </c>
+      <c r="I11">
+        <v>1.3</v>
+      </c>
+      <c r="J11">
+        <v>1.3</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="1"/>
+        <v>30.952380952380953</v>
+      </c>
+      <c r="M11" s="4">
+        <v>30.952380952380953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>17.966999999999999</v>
+      </c>
+      <c r="F12">
+        <v>6.6</v>
+      </c>
+      <c r="G12">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="H12" s="1">
+        <v>16.242167999999999</v>
+      </c>
+      <c r="I12">
+        <v>9.6</v>
+      </c>
+      <c r="J12">
+        <v>9.6</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>13.1</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="1"/>
+        <v>73.282442748091597</v>
+      </c>
+      <c r="M12" s="4">
+        <v>73.282442748091597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>23.459</v>
+      </c>
+      <c r="F13">
+        <v>11.6</v>
+      </c>
+      <c r="G13">
+        <v>0.93630000000000002</v>
+      </c>
+      <c r="H13" s="1">
+        <v>21.964661700000001</v>
+      </c>
+      <c r="I13">
+        <v>10.4</v>
+      </c>
+      <c r="J13">
+        <v>10.4</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>14.4</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="1"/>
+        <v>72.222222222222214</v>
+      </c>
+      <c r="M13" s="4">
+        <v>72.222222222222214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>18.373000000000001</v>
+      </c>
+      <c r="F14">
+        <v>12.4</v>
+      </c>
+      <c r="G14">
+        <v>0.9466</v>
+      </c>
+      <c r="H14" s="1">
+        <v>17.3918818</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="1"/>
+        <v>75.757575757575751</v>
+      </c>
+      <c r="M14" s="4">
+        <v>75.757575757575751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>21.44</v>
+      </c>
+      <c r="F15">
+        <v>20.6</v>
+      </c>
+      <c r="G15">
+        <v>0.77529999999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>16.622432</v>
+      </c>
+      <c r="I15">
+        <v>-4</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>25.026</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>1.0185999999999999</v>
+      </c>
+      <c r="H16" s="1">
+        <v>25.491483599999999</v>
+      </c>
+      <c r="I16">
+        <v>13.5</v>
+      </c>
+      <c r="J16">
+        <v>13.5</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="1"/>
+        <v>82.317073170731717</v>
+      </c>
+      <c r="M16" s="4">
+        <v>82.317073170731717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>21.36</v>
+      </c>
+      <c r="F17">
+        <v>18.8</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>21.36</v>
+      </c>
+      <c r="I17">
+        <v>2.6</v>
+      </c>
+      <c r="J17">
+        <v>2.6</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="M17" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>21.695799999999998</v>
+      </c>
+      <c r="F18">
+        <v>19.8</v>
+      </c>
+      <c r="G18">
+        <v>1.0214000000000001</v>
+      </c>
+      <c r="H18" s="1">
+        <v>22.16009012</v>
+      </c>
+      <c r="I18">
+        <v>2.4</v>
+      </c>
+      <c r="J18">
+        <v>2.4</v>
+      </c>
+      <c r="K18">
+        <v>10.5</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="1"/>
+        <v>22.857142857142858</v>
+      </c>
+      <c r="M18" s="4">
+        <v>22.857142857142858</v>
+      </c>
+      <c r="N18" s="4">
+        <f>AVERAGE(M18:M33)</f>
+        <v>24.058816144994221</v>
+      </c>
+      <c r="O18" s="4">
+        <f>STDEV(M18:M33)/SQRT(COUNT(M18:M33))</f>
+        <v>4.434549293502454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>22.22</v>
+      </c>
+      <c r="F19">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G19">
+        <v>1.0365</v>
+      </c>
+      <c r="H19" s="1">
+        <v>23.031029999999998</v>
+      </c>
+      <c r="I19">
+        <v>2.6</v>
+      </c>
+      <c r="J19">
+        <v>2.6</v>
+      </c>
+      <c r="K19">
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="1"/>
+        <v>41.269841269841265</v>
+      </c>
+      <c r="M19" s="4">
+        <v>41.269841269841265</v>
+      </c>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>20.236000000000001</v>
+      </c>
+      <c r="F20">
+        <v>17.2</v>
+      </c>
+      <c r="G20">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="H20" s="1">
+        <v>19.981026400000001</v>
+      </c>
+      <c r="I20">
+        <v>2.8</v>
+      </c>
+      <c r="J20">
+        <v>2.8</v>
+      </c>
+      <c r="K20">
+        <v>11.100000000000001</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="1"/>
+        <v>25.225225225225223</v>
+      </c>
+      <c r="M20" s="4">
+        <v>25.225225225225223</v>
+      </c>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>20.231000000000002</v>
+      </c>
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="H21" s="1">
+        <v>19.939673600000003</v>
+      </c>
+      <c r="I21">
+        <v>1.9</v>
+      </c>
+      <c r="J21">
+        <v>1.9</v>
+      </c>
+      <c r="K21">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="1"/>
+        <v>21.59090909090909</v>
+      </c>
+      <c r="M21" s="4">
+        <v>21.59090909090909</v>
+      </c>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>21.2</v>
+      </c>
+      <c r="F22">
+        <v>20.6</v>
+      </c>
+      <c r="G22">
+        <v>1.0948</v>
+      </c>
+      <c r="H22" s="1">
+        <v>23.209759999999999</v>
+      </c>
+      <c r="I22">
+        <v>2.6</v>
+      </c>
+      <c r="J22">
+        <v>2.6</v>
+      </c>
+      <c r="K22">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="1"/>
+        <v>26.530612244897959</v>
+      </c>
+      <c r="M22" s="4">
+        <v>26.530612244897959</v>
+      </c>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>21.69</v>
+      </c>
+      <c r="F23">
+        <v>22.4</v>
+      </c>
+      <c r="G23">
+        <v>1.0025999999999999</v>
+      </c>
+      <c r="H23" s="1">
+        <v>21.746393999999999</v>
+      </c>
+      <c r="I23">
+        <v>-0.7</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>12.4</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>19.52</v>
+      </c>
+      <c r="F24">
+        <v>18.8</v>
+      </c>
+      <c r="G24">
+        <v>1.1335999999999999</v>
+      </c>
+      <c r="H24" s="1">
+        <v>22.127872</v>
+      </c>
+      <c r="I24">
+        <v>3.3</v>
+      </c>
+      <c r="J24">
+        <v>3.3</v>
+      </c>
+      <c r="K24">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="1"/>
+        <v>35.483870967741929</v>
+      </c>
+      <c r="M24" s="4">
+        <v>35.483870967741929</v>
+      </c>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>22.727</v>
+      </c>
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="G25">
+        <v>1.0071000000000001</v>
+      </c>
+      <c r="H25" s="1">
+        <v>22.888361700000004</v>
+      </c>
+      <c r="I25">
+        <v>0.9</v>
+      </c>
+      <c r="J25">
+        <v>0.9</v>
+      </c>
+      <c r="K25">
+        <v>11</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="1"/>
+        <v>8.1818181818181817</v>
+      </c>
+      <c r="M25" s="4">
+        <v>8.1818181818181817</v>
+      </c>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>20.521000000000001</v>
+      </c>
+      <c r="F26">
+        <v>19</v>
+      </c>
+      <c r="G26">
+        <v>1.0402</v>
+      </c>
+      <c r="H26" s="1">
+        <v>21.345944200000002</v>
+      </c>
+      <c r="I26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K26">
+        <v>6</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="1"/>
+        <v>38.333333333333329</v>
+      </c>
+      <c r="M26" s="4">
+        <v>38.333333333333329</v>
+      </c>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>22.731999999999999</v>
+      </c>
+      <c r="F27">
+        <v>23.3</v>
+      </c>
+      <c r="G27">
+        <v>1.1533</v>
+      </c>
+      <c r="H27" s="1">
+        <v>26.2168156</v>
+      </c>
+      <c r="I27">
+        <v>2.9</v>
+      </c>
+      <c r="J27">
+        <v>2.9</v>
+      </c>
+      <c r="K27">
+        <v>4.2</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="1"/>
+        <v>69.047619047619051</v>
+      </c>
+      <c r="M27" s="4">
+        <v>69.047619047619051</v>
+      </c>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>22.52</v>
+      </c>
+      <c r="F28">
+        <v>21.4</v>
+      </c>
+      <c r="G28">
+        <v>1.1045</v>
+      </c>
+      <c r="H28" s="1">
+        <v>24.873339999999999</v>
+      </c>
+      <c r="I28">
+        <v>3.5</v>
+      </c>
+      <c r="J28">
+        <v>3.5</v>
+      </c>
+      <c r="K28">
+        <v>13.1</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="1"/>
+        <v>26.717557251908396</v>
+      </c>
+      <c r="M28" s="4">
+        <v>26.717557251908396</v>
+      </c>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>17.535</v>
+      </c>
+      <c r="F29">
+        <v>14.8</v>
+      </c>
+      <c r="G29">
+        <v>1.0728</v>
+      </c>
+      <c r="H29" s="1">
+        <v>18.811547999999998</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>14.4</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="1"/>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="M29" s="4">
+        <v>27.777777777777779</v>
+      </c>
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>21.109000000000002</v>
+      </c>
+      <c r="F30">
+        <v>20.6</v>
+      </c>
+      <c r="G30">
+        <v>1.0511999999999999</v>
+      </c>
+      <c r="H30" s="1">
+        <v>22.189780800000001</v>
+      </c>
+      <c r="I30">
+        <v>1.6</v>
+      </c>
+      <c r="J30">
+        <v>1.6</v>
+      </c>
+      <c r="K30">
+        <v>6.6</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="1"/>
+        <v>24.242424242424246</v>
+      </c>
+      <c r="M30" s="4">
+        <v>24.242424242424246</v>
+      </c>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>20.556000000000001</v>
+      </c>
+      <c r="F31">
+        <v>23.2</v>
+      </c>
+      <c r="G31">
+        <v>1.0356000000000001</v>
+      </c>
+      <c r="H31" s="1">
+        <v>21.287793600000004</v>
+      </c>
+      <c r="I31">
+        <v>-1.9</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>15.401</v>
+      </c>
+      <c r="F32">
+        <v>12.8</v>
+      </c>
+      <c r="G32">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="H32" s="1">
+        <v>15.724420999999998</v>
+      </c>
+      <c r="I32">
+        <v>2.9</v>
+      </c>
+      <c r="J32">
+        <v>2.9</v>
+      </c>
+      <c r="K32">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="1"/>
+        <v>17.682926829268293</v>
+      </c>
+      <c r="M32" s="4">
+        <v>17.682926829268293</v>
+      </c>
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>21.119</v>
+      </c>
+      <c r="F33">
+        <v>21.2</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>21.119</v>
+      </c>
+      <c r="I33">
+        <v>-0.1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>2.6</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>5.7221000000000002</v>
+      </c>
+      <c r="F34">
+        <v>5.5278999999999998</v>
+      </c>
+      <c r="G34">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="H34" s="1">
+        <v>5.6133800999999997</v>
+      </c>
+      <c r="I34">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="J34">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="K34">
+        <f>J34+J48</f>
+        <v>0.1477</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="1"/>
+        <v>58.023019634394046</v>
+      </c>
+      <c r="M34" s="4">
+        <v>58.023019634394046</v>
+      </c>
+      <c r="N34" s="4">
+        <f>AVERAGE(M34:M47)</f>
+        <v>52.752786403563626</v>
+      </c>
+      <c r="O34" s="4">
+        <f>STDEV(M34:M47)/SQRT(COUNT(M34:M47))</f>
+        <v>8.688116918158606</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>8.9832999999999998</v>
+      </c>
+      <c r="F35">
+        <v>8.8003999999999998</v>
+      </c>
+      <c r="G35">
+        <v>0.9879</v>
+      </c>
+      <c r="H35" s="1">
+        <v>8.8746020699999999</v>
+      </c>
+      <c r="I35">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="J35">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ref="K35:K98" si="2">J35+J49</f>
+        <v>0.30130000000000001</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="1"/>
+        <v>24.692997012943906</v>
+      </c>
+      <c r="M35" s="4">
+        <v>24.692997012943906</v>
+      </c>
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>10.633900000000001</v>
+      </c>
+      <c r="F36">
+        <v>10.218299999999999</v>
+      </c>
+      <c r="G36">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="H36" s="1">
+        <v>10.532877950000001</v>
+      </c>
+      <c r="I36">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="J36">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>0.50280000000000002</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="1"/>
+        <v>62.569610182975332</v>
+      </c>
+      <c r="M36" s="4">
+        <v>62.569610182975332</v>
+      </c>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>9.8618000000000006</v>
+      </c>
+      <c r="F37">
+        <v>9.3688000000000002</v>
+      </c>
+      <c r="G37">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="H37" s="1">
+        <v>9.7710714400000001</v>
+      </c>
+      <c r="I37">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="J37">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="M37" s="4">
+        <v>100</v>
+      </c>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>5.3989000000000003</v>
+      </c>
+      <c r="F38">
+        <v>5.2740999999999998</v>
+      </c>
+      <c r="G38">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="H38" s="1">
+        <v>5.3740650600000004</v>
+      </c>
+      <c r="I38">
+        <v>0.1002</v>
+      </c>
+      <c r="J38">
+        <v>0.1002</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>0.2475</v>
+      </c>
+      <c r="L38" s="3">
+        <f t="shared" si="1"/>
+        <v>40.484848484848484</v>
+      </c>
+      <c r="M38" s="4">
+        <v>40.484848484848484</v>
+      </c>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>7.5876999999999999</v>
+      </c>
+      <c r="F39">
+        <v>7.1463999999999999</v>
+      </c>
+      <c r="G39">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="H39" s="1">
+        <v>7.4450512399999997</v>
+      </c>
+      <c r="I39">
+        <v>0.2984</v>
+      </c>
+      <c r="J39">
+        <v>0.2984</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>0.30280000000000001</v>
+      </c>
+      <c r="L39" s="3">
+        <f t="shared" si="1"/>
+        <v>98.546895640686913</v>
+      </c>
+      <c r="M39" s="4">
+        <v>98.546895640686913</v>
+      </c>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>6.4093999999999998</v>
+      </c>
+      <c r="F40">
+        <v>5.9364999999999997</v>
+      </c>
+      <c r="G40">
+        <v>1.0088999999999999</v>
+      </c>
+      <c r="H40" s="1">
+        <v>6.4664436599999995</v>
+      </c>
+      <c r="I40">
+        <v>0.53</v>
+      </c>
+      <c r="J40">
+        <v>0.53</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>0.78620000000000001</v>
+      </c>
+      <c r="L40" s="3">
+        <f t="shared" si="1"/>
+        <v>67.41287204273722</v>
+      </c>
+      <c r="M40" s="4">
+        <v>67.41287204273722</v>
+      </c>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>9.1340000000000003</v>
+      </c>
+      <c r="F41">
+        <v>8.9581999999999997</v>
+      </c>
+      <c r="G41">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="H41" s="1">
+        <v>8.9714147999999998</v>
+      </c>
+      <c r="I41">
+        <v>1.37E-2</v>
+      </c>
+      <c r="J41">
+        <v>1.37E-2</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="L41" s="3">
+        <f t="shared" si="1"/>
+        <v>32.464454976303323</v>
+      </c>
+      <c r="M41" s="4">
+        <v>32.464454976303323</v>
+      </c>
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>7.3625999999999996</v>
+      </c>
+      <c r="F42">
+        <v>6.8358999999999996</v>
+      </c>
+      <c r="G42">
+        <v>1.0152000000000001</v>
+      </c>
+      <c r="H42" s="1">
+        <v>7.4745115200000001</v>
+      </c>
+      <c r="I42">
+        <v>0.63859999999999995</v>
+      </c>
+      <c r="J42">
+        <v>0.63859999999999995</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="1"/>
+        <v>68.423872281152882</v>
+      </c>
+      <c r="M42" s="4">
+        <v>68.423872281152882</v>
+      </c>
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>8.6838999999999995</v>
+      </c>
+      <c r="F43">
+        <v>9.0239999999999991</v>
+      </c>
+      <c r="G43">
+        <v>1.0094000000000001</v>
+      </c>
+      <c r="H43" s="1">
+        <v>8.7655286599999993</v>
+      </c>
+      <c r="I43">
+        <v>-0.2581</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>0.2792</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0</v>
+      </c>
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>8.8308</v>
+      </c>
+      <c r="F44">
+        <v>8.7222000000000008</v>
+      </c>
+      <c r="G44">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="H44" s="1">
+        <v>8.8281507599999998</v>
+      </c>
+      <c r="I44">
+        <v>0.1055</v>
+      </c>
+      <c r="J44">
+        <v>0.1055</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>1.111</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" si="1"/>
+        <v>9.4959495949594963</v>
+      </c>
+      <c r="M44" s="4">
+        <v>9.4959495949594963</v>
+      </c>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>5.7918000000000003</v>
+      </c>
+      <c r="F45">
+        <v>5.7023999999999999</v>
+      </c>
+      <c r="G45">
+        <v>1.0141</v>
+      </c>
+      <c r="H45" s="1">
+        <v>5.8734643800000006</v>
+      </c>
+      <c r="I45">
+        <v>0.17130000000000001</v>
+      </c>
+      <c r="J45">
+        <v>0.17130000000000001</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>0.17130000000000001</v>
+      </c>
+      <c r="L45" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="M45" s="4">
+        <v>100</v>
+      </c>
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>6.6805099999999999</v>
+      </c>
+      <c r="F46">
+        <v>6.4103000000000003</v>
+      </c>
+      <c r="G46">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="H46" s="1">
+        <v>6.5515761570000004</v>
+      </c>
+      <c r="I46">
+        <v>0.14149999999999999</v>
+      </c>
+      <c r="J46">
+        <v>0.14149999999999999</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>0.4859</v>
+      </c>
+      <c r="L46" s="3">
+        <f t="shared" si="1"/>
+        <v>29.121218357686761</v>
+      </c>
+      <c r="M46" s="4">
+        <v>29.121218357686761</v>
+      </c>
+      <c r="O46" s="4"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>4.7653999999999996</v>
+      </c>
+      <c r="F47">
+        <v>4.6996000000000002</v>
+      </c>
+      <c r="G47">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="H47" s="1">
+        <v>4.7530099599999991</v>
+      </c>
+      <c r="I47">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="J47">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="L47" s="3">
+        <f t="shared" si="1"/>
+        <v>47.303271441202469</v>
+      </c>
+      <c r="M47" s="4">
+        <v>47.303271441202469</v>
+      </c>
+      <c r="O47" s="4"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>7.2477</v>
+      </c>
+      <c r="F48">
+        <v>7.0034999999999998</v>
+      </c>
+      <c r="G48">
+        <v>0.97489999999999999</v>
+      </c>
+      <c r="H48" s="1">
+        <v>7.0657827299999996</v>
+      </c>
+      <c r="I48">
+        <v>6.2E-2</v>
+      </c>
+      <c r="J48">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K48">
+        <v>0.1477</v>
+      </c>
+      <c r="L48" s="3">
+        <f t="shared" si="1"/>
+        <v>41.976980365605961</v>
+      </c>
+      <c r="M48" s="4">
+        <v>41.976980365605961</v>
+      </c>
+      <c r="N48" s="4">
+        <f>AVERAGE(M48:M61)</f>
+        <v>40.104356453579221</v>
+      </c>
+      <c r="O48" s="4">
+        <f>STDEV(M48:M61)/SQRT(COUNT(M48:M61))</f>
+        <v>8.2785076431617846</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>5.1283000000000003</v>
+      </c>
+      <c r="F49">
+        <v>4.7251000000000003</v>
+      </c>
+      <c r="G49">
+        <v>0.96560000000000001</v>
+      </c>
+      <c r="H49" s="1">
+        <v>4.9518864800000006</v>
+      </c>
+      <c r="I49">
+        <v>0.22689999999999999</v>
+      </c>
+      <c r="J49">
+        <v>0.22689999999999999</v>
+      </c>
+      <c r="K49">
+        <v>0.30130000000000001</v>
+      </c>
+      <c r="L49" s="3">
+        <f>(J49/K49)*100</f>
+        <v>75.30700298705608</v>
+      </c>
+      <c r="M49" s="4">
+        <v>75.30700298705608</v>
+      </c>
+      <c r="O49" s="4"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50">
+        <v>10.3001</v>
+      </c>
+      <c r="F50">
+        <v>9.7443000000000008</v>
+      </c>
+      <c r="G50">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="H50" s="1">
+        <v>9.9323864300000011</v>
+      </c>
+      <c r="I50">
+        <v>0.18820000000000001</v>
+      </c>
+      <c r="J50">
+        <v>0.18820000000000001</v>
+      </c>
+      <c r="K50">
+        <v>0.50280000000000002</v>
+      </c>
+      <c r="L50" s="3">
+        <f t="shared" si="1"/>
+        <v>37.430389817024661</v>
+      </c>
+      <c r="M50" s="4">
+        <v>37.430389817024661</v>
+      </c>
+      <c r="O50" s="4"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <v>5.7388000000000003</v>
+      </c>
+      <c r="F51">
+        <v>5.5644999999999998</v>
+      </c>
+      <c r="G51">
+        <v>0.91920000000000002</v>
+      </c>
+      <c r="H51" s="1">
+        <v>5.2751049600000002</v>
+      </c>
+      <c r="I51">
+        <v>-0.2893</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="L51" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="4">
+        <v>0</v>
+      </c>
+      <c r="O51" s="4"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>10.1187</v>
+      </c>
+      <c r="F52">
+        <v>9.9669000000000008</v>
+      </c>
+      <c r="G52">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="H52" s="1">
+        <v>10.114652520000002</v>
+      </c>
+      <c r="I52">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="J52">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="K52">
+        <v>0.2475</v>
+      </c>
+      <c r="L52" s="3">
+        <f t="shared" si="1"/>
+        <v>59.515151515151508</v>
+      </c>
+      <c r="M52" s="4">
+        <v>59.515151515151508</v>
+      </c>
+      <c r="O52" s="4"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>7.2798999999999996</v>
+      </c>
+      <c r="F53">
+        <v>7.0598999999999998</v>
+      </c>
+      <c r="G53">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="H53" s="1">
+        <v>7.0644149599999997</v>
+      </c>
+      <c r="I53">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="J53">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="K53">
+        <v>0.30280000000000001</v>
+      </c>
+      <c r="L53" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4531043593130779</v>
+      </c>
+      <c r="M53" s="4">
+        <v>1.4531043593130779</v>
+      </c>
+      <c r="O53" s="4"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>5.774</v>
+      </c>
+      <c r="F54">
+        <v>5.5072000000000001</v>
+      </c>
+      <c r="G54">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="H54" s="1">
+        <v>5.7636067999999998</v>
+      </c>
+      <c r="I54">
+        <v>0.25619999999999998</v>
+      </c>
+      <c r="J54">
+        <v>0.25619999999999998</v>
+      </c>
+      <c r="K54">
+        <v>0.78620000000000001</v>
+      </c>
+      <c r="L54" s="3">
+        <f t="shared" si="1"/>
+        <v>32.58712795726278</v>
+      </c>
+      <c r="M54" s="4">
+        <v>32.58712795726278</v>
+      </c>
+      <c r="O54" s="4"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>6.45</v>
+      </c>
+      <c r="F55">
+        <v>6.3451000000000004</v>
+      </c>
+      <c r="G55">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="H55" s="1">
+        <v>6.3738900000000003</v>
+      </c>
+      <c r="I55">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="J55">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="K55">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="L55" s="3">
+        <f t="shared" si="1"/>
+        <v>67.535545023696685</v>
+      </c>
+      <c r="M55" s="4">
+        <v>67.535545023696685</v>
+      </c>
+      <c r="O55" s="4"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>9.2969000000000008</v>
+      </c>
+      <c r="F56">
+        <v>9.3481000000000005</v>
+      </c>
+      <c r="G56">
+        <v>1.0371999999999999</v>
+      </c>
+      <c r="H56" s="1">
+        <v>9.6427446799999998</v>
+      </c>
+      <c r="I56">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="J56">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="K56">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="L56" s="3">
+        <f t="shared" si="1"/>
+        <v>31.576127718847104</v>
+      </c>
+      <c r="M56" s="4">
+        <v>31.576127718847104</v>
+      </c>
+      <c r="O56" s="4"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>8.1462000000000003</v>
+      </c>
+      <c r="F57">
+        <v>7.9943999999999997</v>
+      </c>
+      <c r="G57">
+        <v>1.0156000000000001</v>
+      </c>
+      <c r="H57" s="1">
+        <v>8.2732807200000007</v>
+      </c>
+      <c r="I57">
+        <v>0.2792</v>
+      </c>
+      <c r="J57">
+        <v>0.2792</v>
+      </c>
+      <c r="K57">
+        <v>0.2792</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="4">
+        <v>0</v>
+      </c>
+      <c r="O57" s="4"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>6.7343999999999999</v>
+      </c>
+      <c r="F58">
+        <v>6.2594000000000003</v>
+      </c>
+      <c r="G58">
+        <v>1.0788</v>
+      </c>
+      <c r="H58" s="1">
+        <v>7.2650707199999998</v>
+      </c>
+      <c r="I58">
+        <v>1.0055000000000001</v>
+      </c>
+      <c r="J58">
+        <v>1.0055000000000001</v>
+      </c>
+      <c r="K58">
+        <v>1.111</v>
+      </c>
+      <c r="L58" s="3">
+        <f>(J58/K58)*100</f>
+        <v>90.504050405040516</v>
+      </c>
+      <c r="M58" s="4">
+        <v>90.504050405040516</v>
+      </c>
+      <c r="O58" s="4"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>4.9767000000000001</v>
+      </c>
+      <c r="F59">
+        <v>5.0064000000000002</v>
+      </c>
+      <c r="G59">
+        <v>0.997</v>
+      </c>
+      <c r="H59" s="1">
+        <v>4.9617699000000002</v>
+      </c>
+      <c r="I59">
+        <v>-4.4400000000000002E-2</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0.17130000000000001</v>
+      </c>
+      <c r="L59" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="4">
+        <v>0</v>
+      </c>
+      <c r="O59" s="4"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>7.5510000000000002</v>
+      </c>
+      <c r="F60">
+        <v>7.3630000000000004</v>
+      </c>
+      <c r="G60">
+        <v>1.0206999999999999</v>
+      </c>
+      <c r="H60" s="1">
+        <v>7.7073057</v>
+      </c>
+      <c r="I60">
+        <v>0.34439999999999998</v>
+      </c>
+      <c r="J60">
+        <v>0.34439999999999998</v>
+      </c>
+      <c r="K60">
+        <v>0.4859</v>
+      </c>
+      <c r="L60" s="3">
+        <f t="shared" si="1"/>
+        <v>70.878781642313228</v>
+      </c>
+      <c r="M60" s="4">
+        <v>70.878781642313228</v>
+      </c>
+      <c r="O60" s="4"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61">
+        <v>8.9648000000000003</v>
+      </c>
+      <c r="F61">
+        <v>8.8081999999999994</v>
+      </c>
+      <c r="G61">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="H61" s="1">
+        <v>8.8679801600000001</v>
+      </c>
+      <c r="I61">
+        <v>5.96E-2</v>
+      </c>
+      <c r="J61">
+        <v>5.96E-2</v>
+      </c>
+      <c r="K61">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="L61" s="3">
+        <f t="shared" si="1"/>
+        <v>52.696728558797524</v>
+      </c>
+      <c r="M61" s="4">
+        <v>52.696728558797524</v>
+      </c>
+      <c r="O61" s="4"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <v>9.6804000000000006</v>
+      </c>
+      <c r="F62">
+        <v>9.6433999999999997</v>
+      </c>
+      <c r="G62">
+        <v>1.0134000000000001</v>
+      </c>
+      <c r="H62" s="1">
+        <v>9.8101173600000013</v>
+      </c>
+      <c r="I62">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="J62">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="2"/>
+        <v>0.82150000000000001</v>
+      </c>
+      <c r="L62" s="3">
+        <f t="shared" si="1"/>
+        <v>20.292148508825317</v>
+      </c>
+      <c r="M62" s="4">
+        <v>20.292148508825317</v>
+      </c>
+      <c r="N62" s="4">
+        <f>AVERAGE(M62:M75)</f>
+        <v>13.3813967665332</v>
+      </c>
+      <c r="O62" s="4">
+        <f>STDEV(M62:M75)/SQRT(COUNT(M62:M75))</f>
+        <v>5.6424440555402366</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <v>5.9949000000000003</v>
+      </c>
+      <c r="F63">
+        <v>6.0648</v>
+      </c>
+      <c r="G63">
+        <v>1.0117</v>
+      </c>
+      <c r="H63" s="1">
+        <v>6.0650403300000004</v>
+      </c>
+      <c r="I63">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="J63">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="2"/>
+        <v>0.12239999999999999</v>
+      </c>
+      <c r="L63" s="3">
+        <f t="shared" si="1"/>
+        <v>0.32679738562091504</v>
+      </c>
+      <c r="M63" s="4">
+        <v>0.32679738562091504</v>
+      </c>
+      <c r="O63" s="4"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>8.2184000000000008</v>
+      </c>
+      <c r="F64">
+        <v>8.2088000000000001</v>
+      </c>
+      <c r="G64">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="H64" s="1">
+        <v>8.1888137600000004</v>
+      </c>
+      <c r="I64">
+        <v>-1.9699999999999999E-2</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="2"/>
+        <v>0.2036</v>
+      </c>
+      <c r="L64" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="4">
+        <v>0</v>
+      </c>
+      <c r="O64" s="4"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>6.5654000000000003</v>
+      </c>
+      <c r="F65">
+        <v>6.5677000000000003</v>
+      </c>
+      <c r="G65">
+        <v>1.0045999999999999</v>
+      </c>
+      <c r="H65" s="1">
+        <v>6.5956008400000004</v>
+      </c>
+      <c r="I65">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J65">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="2"/>
+        <v>0.32250000000000001</v>
+      </c>
+      <c r="L65" s="3">
+        <f t="shared" si="1"/>
+        <v>8.6821705426356584</v>
+      </c>
+      <c r="M65" s="4">
+        <v>8.6821705426356584</v>
+      </c>
+      <c r="O65" s="4"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>4.5952000000000002</v>
+      </c>
+      <c r="F66">
+        <v>4.5457000000000001</v>
+      </c>
+      <c r="G66">
+        <v>0.96619999999999995</v>
+      </c>
+      <c r="H66" s="1">
+        <v>4.4398822400000002</v>
+      </c>
+      <c r="I66">
+        <v>-0.106</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="2"/>
+        <v>0.21210000000000001</v>
+      </c>
+      <c r="L66" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="4">
+        <v>0</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="4"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>8.0264000000000006</v>
+      </c>
+      <c r="F67">
+        <v>8.1249000000000002</v>
+      </c>
+      <c r="G67">
+        <v>1.0242</v>
+      </c>
+      <c r="H67" s="1">
+        <v>8.220638880000001</v>
+      </c>
+      <c r="I67">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="J67">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="2"/>
+        <v>0.53710000000000002</v>
+      </c>
+      <c r="L67" s="3">
+        <f t="shared" ref="L67:L117" si="3">(J67/K67)*100</f>
+        <v>17.873766523924779</v>
+      </c>
+      <c r="M67" s="4">
+        <v>17.873766523924779</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="4"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>9.032</v>
+      </c>
+      <c r="F68">
+        <v>9.0891999999999999</v>
+      </c>
+      <c r="G68">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="H68" s="1">
+        <v>9.0202583999999995</v>
+      </c>
+      <c r="I68">
+        <v>-6.8500000000000005E-2</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="2"/>
+        <v>0.1201</v>
+      </c>
+      <c r="L68" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="4">
+        <v>0</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="4"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>7.7203999999999997</v>
+      </c>
+      <c r="F69">
+        <v>7.7168000000000001</v>
+      </c>
+      <c r="G69">
+        <v>1.0105999999999999</v>
+      </c>
+      <c r="H69" s="1">
+        <v>7.8022362399999992</v>
+      </c>
+      <c r="I69">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="J69">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="2"/>
+        <v>0.20929999999999999</v>
+      </c>
+      <c r="L69" s="3">
+        <f t="shared" si="3"/>
+        <v>40.850453893932162</v>
+      </c>
+      <c r="M69" s="4">
+        <v>40.850453893932162</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="4"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>4.5621999999999998</v>
+      </c>
+      <c r="F70">
+        <v>4.5368000000000004</v>
+      </c>
+      <c r="G70">
+        <v>0.98040000000000005</v>
+      </c>
+      <c r="H70" s="1">
+        <v>4.4727808800000002</v>
+      </c>
+      <c r="I70">
+        <v>-6.3799999999999996E-2</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="2"/>
+        <v>0.2185</v>
+      </c>
+      <c r="L70" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="4">
+        <v>0</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="4"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <v>7.0423</v>
+      </c>
+      <c r="F71">
+        <v>7.0277000000000003</v>
+      </c>
+      <c r="G71">
+        <v>1.0085999999999999</v>
+      </c>
+      <c r="H71" s="1">
+        <v>7.1028637799999998</v>
+      </c>
+      <c r="I71">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="J71">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="2"/>
+        <v>0.27910000000000001</v>
+      </c>
+      <c r="L71" s="3">
+        <f t="shared" si="3"/>
+        <v>26.800429953421713</v>
+      </c>
+      <c r="M71" s="4">
+        <v>26.800429953421713</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="4"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>5.6120999999999999</v>
+      </c>
+      <c r="F72">
+        <v>5.6368</v>
+      </c>
+      <c r="G72">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="H72" s="1">
+        <v>5.1429284399999995</v>
+      </c>
+      <c r="I72">
+        <v>-0.49359999999999998</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="2"/>
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="L72" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="4">
+        <v>0</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="4"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>7.2765000000000004</v>
+      </c>
+      <c r="F73">
+        <v>7.4031000000000002</v>
+      </c>
+      <c r="G73">
+        <v>1.0122</v>
+      </c>
+      <c r="H73" s="1">
+        <v>7.3652733000000001</v>
+      </c>
+      <c r="I73">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="4">
+        <v>0</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="4"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>7.9714999999999998</v>
+      </c>
+      <c r="F74">
+        <v>7.9482999999999997</v>
+      </c>
+      <c r="G74">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="H74" s="1">
+        <v>7.9571512999999996</v>
+      </c>
+      <c r="I74">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="J74">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="2"/>
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="L74" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0549501507071644</v>
+      </c>
+      <c r="M74" s="4">
+        <v>1.0549501507071644</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="4"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>9.1224000000000007</v>
+      </c>
+      <c r="F75">
+        <v>8.9231999999999996</v>
+      </c>
+      <c r="G75">
+        <v>1.004</v>
+      </c>
+      <c r="H75" s="1">
+        <v>9.1588896000000002</v>
+      </c>
+      <c r="I75">
+        <v>0.2361</v>
+      </c>
+      <c r="J75">
+        <v>0.2361</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="2"/>
+        <v>0.33040000000000003</v>
+      </c>
+      <c r="L75" s="3">
+        <f t="shared" si="3"/>
+        <v>71.458837772397089</v>
+      </c>
+      <c r="M75" s="4">
+        <v>71.458837772397089</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="4"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>8.1270000000000007</v>
+      </c>
+      <c r="F76">
+        <v>7.8315000000000001</v>
+      </c>
+      <c r="G76">
+        <v>1.0442</v>
+      </c>
+      <c r="H76" s="1">
+        <v>8.4862134000000005</v>
+      </c>
+      <c r="I76">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="J76">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="K76">
+        <v>0.82150000000000001</v>
+      </c>
+      <c r="L76" s="3">
+        <f t="shared" si="3"/>
+        <v>79.707851491174679</v>
+      </c>
+      <c r="M76" s="4">
+        <v>79.707851491174679</v>
+      </c>
+      <c r="N76" s="4">
+        <f>AVERAGE(M76:M89)</f>
+        <v>79.475746090609647</v>
+      </c>
+      <c r="O76" s="4">
+        <f>STDEV(M76:M89)/SQRT(COUNT(M76:M89))</f>
+        <v>8.2554679741121788</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77">
+        <v>9.0670999999999999</v>
+      </c>
+      <c r="F77">
+        <v>8.9085000000000001</v>
+      </c>
+      <c r="G77">
+        <v>0.996</v>
+      </c>
+      <c r="H77" s="1">
+        <v>9.0308315999999991</v>
+      </c>
+      <c r="I77">
+        <v>0.122</v>
+      </c>
+      <c r="J77">
+        <v>0.122</v>
+      </c>
+      <c r="K77">
+        <v>0.12239999999999999</v>
+      </c>
+      <c r="L77" s="3">
+        <f t="shared" si="3"/>
+        <v>99.673202614379079</v>
+      </c>
+      <c r="M77" s="4">
+        <v>99.673202614379079</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="4"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78">
+        <v>11.2379</v>
+      </c>
+      <c r="F78">
+        <v>10.9735</v>
+      </c>
+      <c r="G78">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="H78" s="1">
+        <v>11.17721534</v>
+      </c>
+      <c r="I78">
+        <v>0.2036</v>
+      </c>
+      <c r="J78">
+        <v>0.2036</v>
+      </c>
+      <c r="K78">
+        <v>0.2036</v>
+      </c>
+      <c r="L78" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M78" s="4">
+        <v>100</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="4"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79">
+        <v>4.1654</v>
+      </c>
+      <c r="F79">
+        <v>3.9548000000000001</v>
+      </c>
+      <c r="G79">
+        <v>1.0201</v>
+      </c>
+      <c r="H79" s="1">
+        <v>4.2491245400000004</v>
+      </c>
+      <c r="I79">
+        <v>0.29449999999999998</v>
+      </c>
+      <c r="J79">
+        <v>0.29449999999999998</v>
+      </c>
+      <c r="K79">
+        <v>0.32250000000000001</v>
+      </c>
+      <c r="L79" s="3">
+        <f t="shared" si="3"/>
+        <v>91.317829457364326</v>
+      </c>
+      <c r="M79" s="4">
+        <v>91.317829457364326</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="4"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80">
+        <v>5.6047000000000002</v>
+      </c>
+      <c r="F80">
+        <v>5.4626000000000001</v>
+      </c>
+      <c r="G80">
+        <v>1.0125</v>
+      </c>
+      <c r="H80" s="1">
+        <v>5.6747587499999996</v>
+      </c>
+      <c r="I80">
+        <v>0.21210000000000001</v>
+      </c>
+      <c r="J80">
+        <v>0.21210000000000001</v>
+      </c>
+      <c r="K80">
+        <v>0.21210000000000001</v>
+      </c>
+      <c r="L80" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M80" s="4">
+        <v>100</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="4"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81">
+        <v>8.6112000000000002</v>
+      </c>
+      <c r="F81">
+        <v>8.5853000000000002</v>
+      </c>
+      <c r="G81">
+        <v>1.0482</v>
+      </c>
+      <c r="H81" s="1">
+        <v>9.0262598399999998</v>
+      </c>
+      <c r="I81">
+        <v>0.44109999999999999</v>
+      </c>
+      <c r="J81">
+        <v>0.44109999999999999</v>
+      </c>
+      <c r="K81">
+        <v>0.53710000000000002</v>
+      </c>
+      <c r="L81" s="3">
+        <f t="shared" si="3"/>
+        <v>82.126233476075214</v>
+      </c>
+      <c r="M81" s="4">
+        <v>82.126233476075214</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="4"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82">
+        <v>4.4057000000000004</v>
+      </c>
+      <c r="F82">
+        <v>4.2104999999999997</v>
+      </c>
+      <c r="G82">
+        <v>0.9829</v>
+      </c>
+      <c r="H82" s="1">
+        <v>4.3303625300000004</v>
+      </c>
+      <c r="I82">
+        <v>0.1201</v>
+      </c>
+      <c r="J82">
+        <v>0.1201</v>
+      </c>
+      <c r="K82">
+        <v>0.1201</v>
+      </c>
+      <c r="L82" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M82" s="4">
+        <v>100</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="4"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83">
+        <v>4.3730000000000002</v>
+      </c>
+      <c r="F83">
+        <v>4.2854999999999999</v>
+      </c>
+      <c r="G83">
+        <v>1.0083</v>
+      </c>
+      <c r="H83" s="1">
+        <v>4.4092959</v>
+      </c>
+      <c r="I83">
+        <v>0.12379999999999999</v>
+      </c>
+      <c r="J83">
+        <v>0.12379999999999999</v>
+      </c>
+      <c r="K83">
+        <v>0.20929999999999999</v>
+      </c>
+      <c r="L83" s="3">
+        <f t="shared" si="3"/>
+        <v>59.149546106067838</v>
+      </c>
+      <c r="M83" s="4">
+        <v>59.149546106067838</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="4"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84">
+        <v>7.5289000000000001</v>
+      </c>
+      <c r="F84">
+        <v>7.4130000000000003</v>
+      </c>
+      <c r="G84">
+        <v>1.0136000000000001</v>
+      </c>
+      <c r="H84" s="1">
+        <v>7.631293040000001</v>
+      </c>
+      <c r="I84">
+        <v>0.2185</v>
+      </c>
+      <c r="J84">
+        <v>0.2185</v>
+      </c>
+      <c r="K84">
+        <v>0.2185</v>
+      </c>
+      <c r="L84" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M84" s="4">
+        <v>100</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="4"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85">
+        <v>4.5155000000000003</v>
+      </c>
+      <c r="F85">
+        <v>4.274</v>
+      </c>
+      <c r="G85">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="H85" s="1">
+        <v>4.4784729000000008</v>
+      </c>
+      <c r="I85">
+        <v>0.20430000000000001</v>
+      </c>
+      <c r="J85">
+        <v>0.20430000000000001</v>
+      </c>
+      <c r="K85">
+        <v>0.27910000000000001</v>
+      </c>
+      <c r="L85" s="3">
+        <f t="shared" si="3"/>
+        <v>73.199570046578287</v>
+      </c>
+      <c r="M85" s="4">
+        <v>73.199570046578287</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="4"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86">
+        <v>10.540800000000001</v>
+      </c>
+      <c r="F86">
+        <v>10.3538</v>
+      </c>
+      <c r="G86">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="H86" s="1">
+        <v>10.443824640000001</v>
+      </c>
+      <c r="I86">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="J86">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="K86">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="L86" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M86" s="4">
+        <v>100</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="4"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87">
+        <v>8.4753000000000007</v>
+      </c>
+      <c r="F87">
+        <v>8.6867000000000001</v>
+      </c>
+      <c r="G87">
+        <v>1.0134000000000001</v>
+      </c>
+      <c r="H87" s="1">
+        <v>8.5888690200000006</v>
+      </c>
+      <c r="I87">
+        <v>-9.7699999999999995E-2</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="4">
+        <v>0</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="4"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88">
+        <v>11.1813</v>
+      </c>
+      <c r="F88">
+        <v>11.035399999999999</v>
+      </c>
+      <c r="G88">
+        <v>1.0632999999999999</v>
+      </c>
+      <c r="H88" s="1">
+        <v>11.889076289999998</v>
+      </c>
+      <c r="I88">
+        <v>0.85350000000000004</v>
+      </c>
+      <c r="J88">
+        <v>0.85350000000000004</v>
+      </c>
+      <c r="K88">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="L88" s="3">
+        <f t="shared" si="3"/>
+        <v>98.945049849292829</v>
+      </c>
+      <c r="M88" s="4">
+        <v>98.945049849292829</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="4"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89">
+        <v>7.8563000000000001</v>
+      </c>
+      <c r="F89">
+        <v>7.7224000000000004</v>
+      </c>
+      <c r="G89">
+        <v>0.995</v>
+      </c>
+      <c r="H89" s="1">
+        <v>7.8170184999999996</v>
+      </c>
+      <c r="I89">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="J89">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="K89">
+        <v>0.33040000000000003</v>
+      </c>
+      <c r="L89" s="3">
+        <f t="shared" si="3"/>
+        <v>28.5411622276029</v>
+      </c>
+      <c r="M89" s="4">
+        <v>28.5411622276029</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="4"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <v>8.2376000000000005</v>
+      </c>
+      <c r="F90">
+        <v>7.2945000000000002</v>
+      </c>
+      <c r="G90">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="H90" s="1">
+        <v>8.1684041600000015</v>
+      </c>
+      <c r="I90">
+        <v>0.87360000000000004</v>
+      </c>
+      <c r="J90">
+        <v>0.87360000000000004</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="2"/>
+        <v>0.87360000000000004</v>
+      </c>
+      <c r="L90" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M90" s="4">
+        <v>100</v>
+      </c>
+      <c r="N90" s="4">
+        <f>AVERAGE(M90:M103)</f>
+        <v>87.116279841435016</v>
+      </c>
+      <c r="O90" s="4">
+        <f>STDEV(M90:M103)/SQRT(COUNT(M90:M103))</f>
+        <v>3.0243009585212066</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>4.3026999999999997</v>
+      </c>
+      <c r="F91">
+        <v>3.9636</v>
+      </c>
+      <c r="G91">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="H91" s="1">
+        <v>4.2489162499999997</v>
+      </c>
+      <c r="I91">
+        <v>0.28520000000000001</v>
+      </c>
+      <c r="J91">
+        <v>0.28520000000000001</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="2"/>
+        <v>0.28520000000000001</v>
+      </c>
+      <c r="L91" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M91" s="4">
+        <v>100</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="4"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>7.4382000000000001</v>
+      </c>
+      <c r="F92">
+        <v>5.5772000000000004</v>
+      </c>
+      <c r="G92">
+        <v>1.0398000000000001</v>
+      </c>
+      <c r="H92" s="1">
+        <v>7.7342403600000003</v>
+      </c>
+      <c r="I92">
+        <v>2.157</v>
+      </c>
+      <c r="J92">
+        <v>2.157</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="2"/>
+        <v>2.2223000000000002</v>
+      </c>
+      <c r="L92" s="3">
+        <f t="shared" si="3"/>
+        <v>97.061602843900459</v>
+      </c>
+      <c r="M92" s="4">
+        <v>97.061602843900459</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="4"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>8.0276999999999994</v>
+      </c>
+      <c r="F93">
+        <v>7.4410999999999996</v>
+      </c>
+      <c r="G93">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="H93" s="1">
+        <v>8.0357276999999989</v>
+      </c>
+      <c r="I93">
+        <v>0.59489999999999998</v>
+      </c>
+      <c r="J93">
+        <v>0.59489999999999998</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="2"/>
+        <v>0.8639</v>
+      </c>
+      <c r="L93" s="3">
+        <f t="shared" si="3"/>
+        <v>68.86213682139136</v>
+      </c>
+      <c r="M93" s="4">
+        <v>68.86213682139136</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="4"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>6.2968999999999999</v>
+      </c>
+      <c r="F94">
+        <v>5.6109</v>
+      </c>
+      <c r="G94">
+        <v>1.0017</v>
+      </c>
+      <c r="H94" s="1">
+        <v>6.3076047300000004</v>
+      </c>
+      <c r="I94">
+        <v>0.69689999999999996</v>
+      </c>
+      <c r="J94">
+        <v>0.69689999999999996</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="2"/>
+        <v>0.82929999999999993</v>
+      </c>
+      <c r="L94" s="3">
+        <f t="shared" si="3"/>
+        <v>84.034728083926197</v>
+      </c>
+      <c r="M94" s="4">
+        <v>84.034728083926197</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="4"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>6.2668999999999997</v>
+      </c>
+      <c r="F95">
+        <v>5.5549999999999997</v>
+      </c>
+      <c r="G95">
+        <v>1.008</v>
+      </c>
+      <c r="H95" s="1">
+        <v>6.3170351999999994</v>
+      </c>
+      <c r="I95">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="J95">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="2"/>
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="L95" s="3">
+        <f t="shared" si="3"/>
+        <v>95.463659147869677</v>
+      </c>
+      <c r="M95" s="4">
+        <v>95.463659147869677</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="4"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>4.5580999999999996</v>
+      </c>
+      <c r="F96">
+        <v>4.3093000000000004</v>
+      </c>
+      <c r="G96">
+        <v>1.0065999999999999</v>
+      </c>
+      <c r="H96" s="1">
+        <v>4.5881834599999989</v>
+      </c>
+      <c r="I96">
+        <v>0.27889999999999998</v>
+      </c>
+      <c r="J96">
+        <v>0.27889999999999998</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="2"/>
+        <v>0.3402</v>
+      </c>
+      <c r="L96" s="3">
+        <f t="shared" si="3"/>
+        <v>81.981187536743079</v>
+      </c>
+      <c r="M96" s="4">
+        <v>81.981187536743079</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="4"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>5.5259</v>
+      </c>
+      <c r="F97">
+        <v>4.9520999999999997</v>
+      </c>
+      <c r="G97">
+        <v>1.0124</v>
+      </c>
+      <c r="H97" s="1">
+        <v>5.5944211599999996</v>
+      </c>
+      <c r="I97">
+        <v>0.64249999999999996</v>
+      </c>
+      <c r="J97">
+        <v>0.64249999999999996</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="2"/>
+        <v>0.68589999999999995</v>
+      </c>
+      <c r="L97" s="3">
+        <f t="shared" si="3"/>
+        <v>93.672547018515814</v>
+      </c>
+      <c r="M97" s="4">
+        <v>93.672547018515814</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="4"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98">
+        <v>6.4726999999999997</v>
+      </c>
+      <c r="F98">
+        <v>5.7282999999999999</v>
+      </c>
+      <c r="G98">
+        <v>1.0135000000000001</v>
+      </c>
+      <c r="H98" s="1">
+        <v>6.5600814500000002</v>
+      </c>
+      <c r="I98">
+        <v>0.83150000000000002</v>
+      </c>
+      <c r="J98">
+        <v>0.83150000000000002</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="2"/>
+        <v>1.1476999999999999</v>
+      </c>
+      <c r="L98" s="3">
+        <f t="shared" si="3"/>
+        <v>72.44924631872442</v>
+      </c>
+      <c r="M98" s="4">
+        <v>72.44924631872442</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="4"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99">
+        <v>9.3407</v>
+      </c>
+      <c r="F99">
+        <v>8.8457000000000008</v>
+      </c>
+      <c r="G99">
+        <v>1.0126999999999999</v>
+      </c>
+      <c r="H99" s="1">
+        <v>9.4593268899999998</v>
+      </c>
+      <c r="I99">
+        <v>0.61350000000000005</v>
+      </c>
+      <c r="J99">
+        <v>0.61350000000000005</v>
+      </c>
+      <c r="K99">
+        <f t="shared" ref="K99:K117" si="4">J99+J113</f>
+        <v>0.61350000000000005</v>
+      </c>
+      <c r="L99" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M99" s="4">
+        <v>100</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="4"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <v>5.7720000000000002</v>
+      </c>
+      <c r="F100">
+        <v>4.7736000000000001</v>
+      </c>
+      <c r="G100">
+        <v>1.0161</v>
+      </c>
+      <c r="H100" s="1">
+        <v>5.8649292000000006</v>
+      </c>
+      <c r="I100">
+        <v>1.0914999999999999</v>
+      </c>
+      <c r="J100">
+        <v>1.0914999999999999</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="4"/>
+        <v>1.3964999999999999</v>
+      </c>
+      <c r="L100" s="3">
+        <f t="shared" si="3"/>
+        <v>78.159684926602225</v>
+      </c>
+      <c r="M100" s="4">
+        <v>78.159684926602225</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="4"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101">
+        <v>8.4566999999999997</v>
+      </c>
+      <c r="F101">
+        <v>7.819</v>
+      </c>
+      <c r="G101">
+        <v>1.0463</v>
+      </c>
+      <c r="H101" s="1">
+        <v>8.84824521</v>
+      </c>
+      <c r="I101">
+        <v>1.0296000000000001</v>
+      </c>
+      <c r="J101">
+        <v>1.0296000000000001</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="4"/>
+        <v>1.0947</v>
+      </c>
+      <c r="L101" s="3">
+        <f t="shared" si="3"/>
+        <v>94.053165250753636</v>
+      </c>
+      <c r="M101" s="4">
+        <v>94.053165250753636</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="4"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102">
+        <v>13</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>6.0702999999999996</v>
+      </c>
+      <c r="F102">
+        <v>5.7765000000000004</v>
+      </c>
+      <c r="G102">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="H102" s="1">
+        <v>6.3313228999999991</v>
+      </c>
+      <c r="I102">
+        <v>0.55510000000000004</v>
+      </c>
+      <c r="J102">
+        <v>0.55510000000000004</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="4"/>
+        <v>0.68390000000000006</v>
+      </c>
+      <c r="L102" s="3">
+        <f t="shared" si="3"/>
+        <v>81.166837256908906</v>
+      </c>
+      <c r="M102" s="4">
+        <v>81.166837256908906</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="4"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103">
+        <v>14</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103">
+        <v>4.6664000000000003</v>
+      </c>
+      <c r="F103">
+        <v>4.1596000000000002</v>
+      </c>
+      <c r="G103">
+        <v>1.0279</v>
+      </c>
+      <c r="H103" s="1">
+        <v>4.7965925600000006</v>
+      </c>
+      <c r="I103">
+        <v>0.63719999999999999</v>
+      </c>
+      <c r="J103">
+        <v>0.63719999999999999</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="4"/>
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="L103" s="3">
+        <f t="shared" si="3"/>
+        <v>72.723122574754612</v>
+      </c>
+      <c r="M103" s="4">
+        <v>72.723122574754612</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="4"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104">
+        <v>7.3272000000000004</v>
+      </c>
+      <c r="F104">
+        <v>7.1965000000000003</v>
+      </c>
+      <c r="G104">
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="H104" s="1">
+        <v>7.0993240800000006</v>
+      </c>
+      <c r="I104">
+        <v>-9.7299999999999998E-2</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0.87360000000000004</v>
+      </c>
+      <c r="L104" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M104" s="4">
+        <v>0</v>
+      </c>
+      <c r="N104" s="4">
+        <f>AVERAGE(M104:M117)</f>
+        <v>12.883720158564971</v>
+      </c>
+      <c r="O104" s="4">
+        <f>STDEV(M104:M117)/SQRT(COUNT(M104:M117))</f>
+        <v>3.0243009585211751</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105">
+        <v>8.0774000000000008</v>
+      </c>
+      <c r="F105">
+        <v>7.8400999999999996</v>
+      </c>
+      <c r="G105">
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="H105" s="1">
+        <v>7.5620618800000008</v>
+      </c>
+      <c r="I105">
+        <v>-0.2782</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0.28520000000000001</v>
+      </c>
+      <c r="L105" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M105" s="4">
+        <v>0</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="4"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106">
+        <v>4.1542000000000003</v>
+      </c>
+      <c r="F106">
+        <v>4.0136000000000003</v>
+      </c>
+      <c r="G106">
+        <v>0.9819</v>
+      </c>
+      <c r="H106" s="1">
+        <v>4.0790089800000002</v>
+      </c>
+      <c r="I106">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="J106">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="K106">
+        <v>2.2223000000000002</v>
+      </c>
+      <c r="L106" s="3">
+        <f t="shared" si="3"/>
+        <v>2.9383971560995361</v>
+      </c>
+      <c r="M106" s="4">
+        <v>2.9383971560995361</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="4"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107">
+        <v>6.7694000000000001</v>
+      </c>
+      <c r="F107">
+        <v>6.4673999999999996</v>
+      </c>
+      <c r="G107">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="H107" s="1">
+        <v>6.7362299400000003</v>
+      </c>
+      <c r="I107">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="J107">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="K107">
+        <v>0.8639</v>
+      </c>
+      <c r="L107" s="3">
+        <f t="shared" si="3"/>
+        <v>31.137863178608637</v>
+      </c>
+      <c r="M107" s="4">
+        <v>31.137863178608637</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="4"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108">
+        <v>6.6317000000000004</v>
+      </c>
+      <c r="F108">
+        <v>6.4909999999999997</v>
+      </c>
+      <c r="G108">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="H108" s="1">
+        <v>6.623078790000001</v>
+      </c>
+      <c r="I108">
+        <v>0.13239999999999999</v>
+      </c>
+      <c r="J108">
+        <v>0.13239999999999999</v>
+      </c>
+      <c r="K108">
+        <v>0.82929999999999993</v>
+      </c>
+      <c r="L108" s="3">
+        <f t="shared" si="3"/>
+        <v>15.965271916073798</v>
+      </c>
+      <c r="M108" s="4">
+        <v>15.965271916073798</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="4"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109">
+        <v>6</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109">
+        <v>6.4103000000000003</v>
+      </c>
+      <c r="F109">
+        <v>6.3906000000000001</v>
+      </c>
+      <c r="G109">
+        <v>1.0025999999999999</v>
+      </c>
+      <c r="H109" s="1">
+        <v>6.4269667799999999</v>
+      </c>
+      <c r="I109">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="J109">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="K109">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="L109" s="3">
+        <f t="shared" si="3"/>
+        <v>4.5363408521303255</v>
+      </c>
+      <c r="M109" s="4">
+        <v>4.5363408521303255</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="4"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110">
+        <v>4.3151999999999999</v>
+      </c>
+      <c r="F110">
+        <v>4.2144000000000004</v>
+      </c>
+      <c r="G110">
+        <v>0.9909</v>
+      </c>
+      <c r="H110" s="1">
+        <v>4.2759316800000002</v>
+      </c>
+      <c r="I110">
+        <v>6.13E-2</v>
+      </c>
+      <c r="J110">
+        <v>6.13E-2</v>
+      </c>
+      <c r="K110">
+        <v>0.3402</v>
+      </c>
+      <c r="L110" s="3">
+        <f t="shared" si="3"/>
+        <v>18.018812463256907</v>
+      </c>
+      <c r="M110" s="4">
+        <v>18.018812463256907</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="4"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111">
+        <v>5.8775000000000004</v>
+      </c>
+      <c r="F111">
+        <v>5.819</v>
+      </c>
+      <c r="G111">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="H111" s="1">
+        <v>5.8622185</v>
+      </c>
+      <c r="I111">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="J111">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="K111">
+        <v>0.68589999999999995</v>
+      </c>
+      <c r="L111" s="3">
+        <f t="shared" si="3"/>
+        <v>6.3274529814841811</v>
+      </c>
+      <c r="M111" s="4">
+        <v>6.3274529814841811</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="4"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112">
+        <v>11.721299999999999</v>
+      </c>
+      <c r="F112">
+        <v>11.641999999999999</v>
+      </c>
+      <c r="G112">
+        <v>1.0202</v>
+      </c>
+      <c r="H112" s="1">
+        <v>11.95807026</v>
+      </c>
+      <c r="I112">
+        <v>0.31619999999999998</v>
+      </c>
+      <c r="J112">
+        <v>0.31619999999999998</v>
+      </c>
+      <c r="K112">
+        <v>1.1476999999999999</v>
+      </c>
+      <c r="L112" s="3">
+        <f t="shared" si="3"/>
+        <v>27.550753681275598</v>
+      </c>
+      <c r="M112" s="4">
+        <v>27.550753681275598</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" s="4"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113">
+        <v>5.8867000000000003</v>
+      </c>
+      <c r="F113">
+        <v>6.0677000000000003</v>
+      </c>
+      <c r="G113">
+        <v>1.0293000000000001</v>
+      </c>
+      <c r="H113" s="1">
+        <v>6.0591803100000012</v>
+      </c>
+      <c r="I113">
+        <v>-8.3000000000000001E-3</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0.61350000000000005</v>
+      </c>
+      <c r="L113" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M113" s="4">
+        <v>0</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" s="4"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114">
+        <v>5.1256000000000004</v>
+      </c>
+      <c r="F114">
+        <v>5.0768000000000004</v>
+      </c>
+      <c r="G114">
+        <v>1.05</v>
+      </c>
+      <c r="H114" s="1">
+        <v>5.3818800000000007</v>
+      </c>
+      <c r="I114">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="J114">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="K114">
+        <v>1.3964999999999999</v>
+      </c>
+      <c r="L114" s="3">
+        <f t="shared" si="3"/>
+        <v>21.840315073397782</v>
+      </c>
+      <c r="M114" s="4">
+        <v>21.840315073397782</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" s="4"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115">
+        <v>6.6466000000000003</v>
+      </c>
+      <c r="F115">
+        <v>6.6303000000000001</v>
+      </c>
+      <c r="G115">
+        <v>1.0073000000000001</v>
+      </c>
+      <c r="H115" s="1">
+        <v>6.6951201800000009</v>
+      </c>
+      <c r="I115">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="J115">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="K115">
+        <v>1.0947</v>
+      </c>
+      <c r="L115" s="3">
+        <f t="shared" si="3"/>
+        <v>5.9468347492463689</v>
+      </c>
+      <c r="M115" s="4">
+        <v>5.9468347492463689</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="4"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116">
+        <v>6.8996000000000004</v>
+      </c>
+      <c r="F116">
+        <v>6.8826999999999998</v>
+      </c>
+      <c r="G116">
+        <v>1.0162</v>
+      </c>
+      <c r="H116" s="1">
+        <v>7.0113735200000002</v>
+      </c>
+      <c r="I116">
+        <v>0.1288</v>
+      </c>
+      <c r="J116">
+        <v>0.1288</v>
+      </c>
+      <c r="K116">
+        <v>0.68390000000000006</v>
+      </c>
+      <c r="L116" s="3">
+        <f t="shared" si="3"/>
+        <v>18.833162743091091</v>
+      </c>
+      <c r="M116" s="4">
+        <v>18.833162743091091</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="4"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117">
+        <v>14</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117">
+        <v>5.0640999999999998</v>
+      </c>
+      <c r="F117">
+        <v>4.8658000000000001</v>
+      </c>
+      <c r="G117">
+        <v>1.008</v>
+      </c>
+      <c r="H117" s="1">
+        <v>5.1046128</v>
+      </c>
+      <c r="I117">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="J117">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="K117">
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="L117" s="3">
+        <f t="shared" si="3"/>
+        <v>27.276877425245377</v>
+      </c>
+      <c r="M117" s="4">
+        <v>27.276877425245377</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" s="4"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H118" s="1"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H119" s="1"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H120" s="1"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H121" s="1"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H122" s="1"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H123" s="1"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H124" s="1"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H125" s="1"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H126" s="1"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H127" s="1"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H128" s="1"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+    </row>
+    <row r="129" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H129" s="1"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+    </row>
+    <row r="130" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H130" s="1"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+    </row>
+    <row r="131" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H131" s="1"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+    </row>
+    <row r="132" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H132" s="1"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+    </row>
+    <row r="133" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H133" s="1"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+    </row>
+    <row r="134" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H134" s="1"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+    </row>
+    <row r="135" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H135" s="1"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+    </row>
+    <row r="136" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H136" s="1"/>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+    </row>
+    <row r="137" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H137" s="1"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+    </row>
+    <row r="138" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H138" s="1"/>
+      <c r="N138" s="2"/>
+      <c r="O138" s="2"/>
+    </row>
+    <row r="139" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H139" s="1"/>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+    </row>
+    <row r="140" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H140" s="1"/>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
+    </row>
+    <row r="141" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H141" s="1"/>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
+    </row>
+    <row r="142" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H142" s="1"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+    </row>
+    <row r="143" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H143" s="1"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+    </row>
+    <row r="144" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H144" s="1"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+    </row>
+    <row r="145" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H145" s="1"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+    </row>
+    <row r="146" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H146" s="1"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
+    </row>
+    <row r="147" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H147" s="1"/>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
+    </row>
+    <row r="148" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H148" s="1"/>
+      <c r="N148" s="2"/>
+      <c r="O148" s="2"/>
+    </row>
+    <row r="149" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H149" s="1"/>
+      <c r="N149" s="2"/>
+      <c r="O149" s="2"/>
+    </row>
+    <row r="150" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H150" s="1"/>
+      <c r="N150" s="2"/>
+      <c r="O150" s="2"/>
+    </row>
+    <row r="151" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H151" s="1"/>
+      <c r="N151" s="2"/>
+      <c r="O151" s="2"/>
+    </row>
+    <row r="152" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H152" s="1"/>
+      <c r="N152" s="2"/>
+      <c r="O152" s="2"/>
+    </row>
+    <row r="153" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H153" s="1"/>
+      <c r="N153" s="2"/>
+      <c r="O153" s="2"/>
+    </row>
+    <row r="154" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H154" s="1"/>
+      <c r="N154" s="2"/>
+      <c r="O154" s="2"/>
+    </row>
+    <row r="155" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H155" s="1"/>
+      <c r="N155" s="2"/>
+      <c r="O155" s="2"/>
+    </row>
+    <row r="156" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H156" s="1"/>
+      <c r="N156" s="2"/>
+      <c r="O156" s="2"/>
+    </row>
+    <row r="157" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H157" s="1"/>
+      <c r="N157" s="2"/>
+      <c r="O157" s="2"/>
+    </row>
+    <row r="158" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H158" s="1"/>
+      <c r="N158" s="2"/>
+      <c r="O158" s="2"/>
+    </row>
+    <row r="159" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H159" s="1"/>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
+    </row>
+    <row r="160" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H160" s="1"/>
+      <c r="N160" s="2"/>
+      <c r="O160" s="2"/>
+    </row>
+    <row r="161" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H161" s="1"/>
+      <c r="N161" s="2"/>
+      <c r="O161" s="2"/>
+    </row>
+    <row r="162" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H162" s="1"/>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2"/>
+    </row>
+    <row r="163" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H163" s="1"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
+    </row>
+    <row r="164" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H164" s="1"/>
+      <c r="N164" s="2"/>
+      <c r="O164" s="2"/>
+    </row>
+    <row r="165" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H165" s="1"/>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
+    </row>
+    <row r="166" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H166" s="1"/>
+      <c r="N166" s="2"/>
+      <c r="O166" s="2"/>
+    </row>
+    <row r="167" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H167" s="1"/>
+      <c r="N167" s="2"/>
+      <c r="O167" s="2"/>
+    </row>
+    <row r="168" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H168" s="1"/>
+      <c r="N168" s="2"/>
+      <c r="O168" s="2"/>
+    </row>
+    <row r="169" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H169" s="1"/>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+    </row>
+    <row r="170" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H170" s="1"/>
+      <c r="N170" s="2"/>
+      <c r="O170" s="2"/>
+    </row>
+    <row r="171" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H171" s="1"/>
+      <c r="N171" s="2"/>
+      <c r="O171" s="2"/>
+    </row>
+    <row r="172" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H172" s="1"/>
+      <c r="N172" s="2"/>
+      <c r="O172" s="2"/>
+    </row>
+    <row r="173" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H173" s="1"/>
+      <c r="N173" s="2"/>
+      <c r="O173" s="2"/>
+    </row>
+    <row r="174" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H174" s="1"/>
+      <c r="N174" s="2"/>
+      <c r="O174" s="2"/>
+    </row>
+    <row r="175" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H175" s="1"/>
+      <c r="N175" s="2"/>
+      <c r="O175" s="2"/>
+    </row>
+    <row r="176" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H176" s="1"/>
+      <c r="N176" s="2"/>
+      <c r="O176" s="2"/>
+    </row>
+    <row r="177" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H177" s="1"/>
+      <c r="N177" s="2"/>
+      <c r="O177" s="2"/>
+    </row>
+    <row r="178" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H178" s="1"/>
+      <c r="N178" s="2"/>
+      <c r="O178" s="2"/>
+    </row>
+    <row r="179" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H179" s="1"/>
+      <c r="N179" s="2"/>
+      <c r="O179" s="2"/>
+    </row>
+    <row r="180" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H180" s="1"/>
+      <c r="N180" s="2"/>
+      <c r="O180" s="2"/>
+    </row>
+    <row r="181" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H181" s="1"/>
+      <c r="N181" s="2"/>
+      <c r="O181" s="2"/>
+    </row>
+    <row r="182" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H182" s="1"/>
+      <c r="N182" s="2"/>
+      <c r="O182" s="2"/>
+    </row>
+    <row r="183" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H183" s="1"/>
+      <c r="N183" s="2"/>
+      <c r="O183" s="2"/>
+    </row>
+    <row r="184" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H184" s="1"/>
+      <c r="N184" s="2"/>
+      <c r="O184" s="2"/>
+    </row>
+    <row r="185" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H185" s="1"/>
+      <c r="N185" s="2"/>
+      <c r="O185" s="2"/>
+    </row>
+    <row r="186" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H186" s="1"/>
+      <c r="N186" s="2"/>
+      <c r="O186" s="2"/>
+    </row>
+    <row r="187" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H187" s="1"/>
+      <c r="N187" s="2"/>
+      <c r="O187" s="2"/>
+    </row>
+    <row r="188" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H188" s="1"/>
+      <c r="N188" s="2"/>
+      <c r="O188" s="2"/>
+    </row>
+    <row r="189" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H189" s="1"/>
+      <c r="N189" s="2"/>
+      <c r="O189" s="2"/>
+    </row>
+    <row r="190" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H190" s="1"/>
+      <c r="N190" s="2"/>
+      <c r="O190" s="2"/>
+    </row>
+    <row r="191" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H191" s="1"/>
+      <c r="N191" s="2"/>
+      <c r="O191" s="2"/>
+    </row>
+    <row r="192" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H192" s="1"/>
+      <c r="N192" s="2"/>
+      <c r="O192" s="2"/>
+    </row>
+    <row r="193" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H193" s="1"/>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+    </row>
+    <row r="194" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H194" s="1"/>
+      <c r="N194" s="2"/>
+      <c r="O194" s="2"/>
+    </row>
+    <row r="195" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H195" s="1"/>
+      <c r="N195" s="2"/>
+      <c r="O195" s="2"/>
+    </row>
+    <row r="196" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H196" s="1"/>
+      <c r="N196" s="2"/>
+      <c r="O196" s="2"/>
+    </row>
+    <row r="197" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H197" s="1"/>
+      <c r="N197" s="2"/>
+      <c r="O197" s="2"/>
+    </row>
+    <row r="198" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H198" s="1"/>
+      <c r="N198" s="2"/>
+      <c r="O198" s="2"/>
+    </row>
+    <row r="199" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H199" s="1"/>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+    </row>
+    <row r="200" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H200" s="1"/>
+      <c r="N200" s="2"/>
+      <c r="O200" s="2"/>
+    </row>
+    <row r="201" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H201" s="1"/>
+      <c r="N201" s="2"/>
+      <c r="O201" s="2"/>
+    </row>
+    <row r="202" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H202" s="1"/>
+      <c r="N202" s="2"/>
+      <c r="O202" s="2"/>
+    </row>
+    <row r="203" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H203" s="1"/>
+      <c r="N203" s="2"/>
+      <c r="O203" s="2"/>
+    </row>
+    <row r="204" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H204" s="1"/>
+      <c r="N204" s="2"/>
+      <c r="O204" s="2"/>
+    </row>
+    <row r="205" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H205" s="1"/>
+      <c r="N205" s="2"/>
+      <c r="O205" s="2"/>
+    </row>
+    <row r="206" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H206" s="1"/>
+      <c r="N206" s="2"/>
+      <c r="O206" s="2"/>
+    </row>
+    <row r="207" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H207" s="1"/>
+      <c r="N207" s="2"/>
+      <c r="O207" s="2"/>
+    </row>
+    <row r="208" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H208" s="1"/>
+      <c r="N208" s="2"/>
+      <c r="O208" s="2"/>
+    </row>
+    <row r="209" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H209" s="1"/>
+      <c r="N209" s="2"/>
+      <c r="O209" s="2"/>
+    </row>
+    <row r="210" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H210" s="1"/>
+      <c r="N210" s="2"/>
+      <c r="O210" s="2"/>
+    </row>
+    <row r="211" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H211" s="1"/>
+      <c r="N211" s="2"/>
+      <c r="O211" s="2"/>
+    </row>
+    <row r="212" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H212" s="1"/>
+      <c r="N212" s="2"/>
+      <c r="O212" s="2"/>
+    </row>
+    <row r="213" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H213" s="1"/>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
+    </row>
+    <row r="214" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H214" s="1"/>
+      <c r="N214" s="2"/>
+      <c r="O214" s="2"/>
+    </row>
+    <row r="215" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H215" s="1"/>
+      <c r="N215" s="2"/>
+      <c r="O215" s="2"/>
+    </row>
+    <row r="216" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H216" s="1"/>
+      <c r="N216" s="2"/>
+      <c r="O216" s="2"/>
+    </row>
+    <row r="217" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H217" s="1"/>
+      <c r="N217" s="2"/>
+      <c r="O217" s="2"/>
+    </row>
+    <row r="218" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H218" s="1"/>
+      <c r="N218" s="2"/>
+      <c r="O218" s="2"/>
+    </row>
+    <row r="219" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H219" s="1"/>
+      <c r="N219" s="2"/>
+      <c r="O219" s="2"/>
+    </row>
+    <row r="220" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H220" s="1"/>
+      <c r="N220" s="2"/>
+      <c r="O220" s="2"/>
+    </row>
+    <row r="221" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H221" s="1"/>
+      <c r="N221" s="2"/>
+      <c r="O221" s="2"/>
+    </row>
+    <row r="222" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H222" s="1"/>
+      <c r="N222" s="2"/>
+      <c r="O222" s="2"/>
+    </row>
+    <row r="223" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H223" s="1"/>
+      <c r="N223" s="2"/>
+      <c r="O223" s="2"/>
+    </row>
+    <row r="224" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H224" s="1"/>
+      <c r="N224" s="2"/>
+      <c r="O224" s="2"/>
+    </row>
+    <row r="225" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H225" s="1"/>
+      <c r="N225" s="2"/>
+      <c r="O225" s="2"/>
+    </row>
+    <row r="226" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H226" s="1"/>
+      <c r="N226" s="2"/>
+      <c r="O226" s="2"/>
+    </row>
+    <row r="227" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H227" s="1"/>
+      <c r="N227" s="2"/>
+      <c r="O227" s="2"/>
+    </row>
+    <row r="228" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H228" s="1"/>
+      <c r="N228" s="2"/>
+      <c r="O228" s="2"/>
+    </row>
+    <row r="229" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H229" s="1"/>
+      <c r="N229" s="2"/>
+      <c r="O229" s="2"/>
+    </row>
+    <row r="230" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H230" s="1"/>
+      <c r="N230" s="2"/>
+      <c r="O230" s="2"/>
+    </row>
+    <row r="231" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H231" s="1"/>
+      <c r="N231" s="2"/>
+      <c r="O231" s="2"/>
+    </row>
+    <row r="232" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H232" s="1"/>
+      <c r="N232" s="2"/>
+      <c r="O232" s="2"/>
+    </row>
+    <row r="233" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H233" s="1"/>
+      <c r="N233" s="2"/>
+      <c r="O233" s="2"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I237">
+    <sortCondition ref="A70:A237"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/feeding choice assay means and SE.xlsx
+++ b/feeding choice assay means and SE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ric/Documents/GitHub/Invasive_wrack/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72481473-AFCA-ED46-B901-7EE7B7C906B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1222C05E-0A0F-F24F-8183-A73F1E5A352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{F7008EFB-90C3-3C4B-AA36-7048E81055E9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="21">
   <si>
     <t>line_no.</t>
   </si>
@@ -96,27 +96,19 @@
     <t>corrected_i</t>
   </si>
   <si>
-    <t>total_consumed</t>
+    <t>avg_consumed</t>
   </si>
   <si>
-    <t>none_neg_Wd</t>
-  </si>
-  <si>
-    <t>%_eaten</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>SE</t>
+    <t>kelp/dev</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -151,8 +143,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2255,15 +2247,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DC5D3B-FAA6-A743-844B-83B6B45D8D8C}">
-  <dimension ref="A1:O233"/>
+  <dimension ref="A1:K233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="L95" sqref="L95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2292,25 +2284,13 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2338,30 +2318,16 @@
       <c r="I2">
         <v>8.1</v>
       </c>
-      <c r="J2">
-        <v>8.1</v>
+      <c r="J2" s="3">
+        <f>AVERAGE(I2:I17)</f>
+        <v>6.55</v>
       </c>
       <c r="K2">
-        <f>J2++J18</f>
-        <v>10.5</v>
-      </c>
-      <c r="L2" s="3">
-        <f>(J2/K2)*100</f>
-        <v>77.142857142857139</v>
-      </c>
-      <c r="M2" s="4">
-        <v>77.142857142857139</v>
-      </c>
-      <c r="N2" s="4">
-        <f>AVERAGE(M2:M17)</f>
-        <v>69.691183855005775</v>
-      </c>
-      <c r="O2" s="4">
-        <f>STDEV(M2:M17)/SQRT(COUNT(M2:M17))</f>
-        <v>6.2192213324773409</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <f>(J2/J18)</f>
+        <v>3.3806451612903228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2389,22 +2355,8 @@
       <c r="I3">
         <v>3.7</v>
       </c>
-      <c r="J3">
-        <v>3.7</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K17" si="0">J3++J19</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="L3" s="3">
-        <f t="shared" ref="L3:L66" si="1">(J3/K3)*100</f>
-        <v>58.73015873015872</v>
-      </c>
-      <c r="M3" s="4">
-        <v>58.73015873015872</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2432,22 +2384,8 @@
       <c r="I4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J4">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>11.100000000000001</v>
-      </c>
-      <c r="L4" s="3">
-        <f t="shared" si="1"/>
-        <v>74.774774774774784</v>
-      </c>
-      <c r="M4" s="4">
-        <v>74.774774774774784</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2475,22 +2413,8 @@
       <c r="I5">
         <v>6.9</v>
       </c>
-      <c r="J5">
-        <v>6.9</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="L5" s="3">
-        <f t="shared" si="1"/>
-        <v>78.409090909090907</v>
-      </c>
-      <c r="M5" s="4">
-        <v>78.409090909090907</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2518,22 +2442,8 @@
       <c r="I6">
         <v>7.2</v>
       </c>
-      <c r="J6">
-        <v>7.2</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L6" s="3">
-        <f t="shared" si="1"/>
-        <v>73.469387755102034</v>
-      </c>
-      <c r="M6" s="4">
-        <v>73.469387755102034</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2561,22 +2471,8 @@
       <c r="I7">
         <v>12.4</v>
       </c>
-      <c r="J7">
-        <v>12.4</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>12.4</v>
-      </c>
-      <c r="L7" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="M7" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2604,22 +2500,8 @@
       <c r="I8">
         <v>6</v>
       </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="L8" s="3">
-        <f t="shared" si="1"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="M8" s="4">
-        <v>64.516129032258064</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2647,22 +2529,8 @@
       <c r="I9">
         <v>10.1</v>
       </c>
-      <c r="J9">
-        <v>10.1</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L9" s="3">
-        <f t="shared" si="1"/>
-        <v>91.818181818181813</v>
-      </c>
-      <c r="M9" s="4">
-        <v>91.818181818181813</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2690,22 +2558,8 @@
       <c r="I10">
         <v>3.7</v>
       </c>
-      <c r="J10">
-        <v>3.7</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L10" s="3">
-        <f t="shared" si="1"/>
-        <v>61.666666666666671</v>
-      </c>
-      <c r="M10" s="4">
-        <v>61.666666666666671</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2733,22 +2587,8 @@
       <c r="I11">
         <v>1.3</v>
       </c>
-      <c r="J11">
-        <v>1.3</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>4.2</v>
-      </c>
-      <c r="L11" s="3">
-        <f t="shared" si="1"/>
-        <v>30.952380952380953</v>
-      </c>
-      <c r="M11" s="4">
-        <v>30.952380952380953</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2776,22 +2616,8 @@
       <c r="I12">
         <v>9.6</v>
       </c>
-      <c r="J12">
-        <v>9.6</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>13.1</v>
-      </c>
-      <c r="L12" s="3">
-        <f t="shared" si="1"/>
-        <v>73.282442748091597</v>
-      </c>
-      <c r="M12" s="4">
-        <v>73.282442748091597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2819,22 +2645,8 @@
       <c r="I13">
         <v>10.4</v>
       </c>
-      <c r="J13">
-        <v>10.4</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>14.4</v>
-      </c>
-      <c r="L13" s="3">
-        <f t="shared" si="1"/>
-        <v>72.222222222222214</v>
-      </c>
-      <c r="M13" s="4">
-        <v>72.222222222222214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2862,22 +2674,8 @@
       <c r="I14">
         <v>5</v>
       </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>6.6</v>
-      </c>
-      <c r="L14" s="3">
-        <f t="shared" si="1"/>
-        <v>75.757575757575751</v>
-      </c>
-      <c r="M14" s="4">
-        <v>75.757575757575751</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2905,21 +2703,8 @@
       <c r="I15">
         <v>-4</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2947,22 +2732,8 @@
       <c r="I16">
         <v>13.5</v>
       </c>
-      <c r="J16">
-        <v>13.5</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="L16" s="3">
-        <f t="shared" si="1"/>
-        <v>82.317073170731717</v>
-      </c>
-      <c r="M16" s="4">
-        <v>82.317073170731717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2990,22 +2761,8 @@
       <c r="I17">
         <v>2.6</v>
       </c>
-      <c r="J17">
-        <v>2.6</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-      <c r="L17" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="M17" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -3033,29 +2790,12 @@
       <c r="I18">
         <v>2.4</v>
       </c>
-      <c r="J18">
-        <v>2.4</v>
-      </c>
-      <c r="K18">
-        <v>10.5</v>
-      </c>
-      <c r="L18" s="3">
-        <f t="shared" si="1"/>
-        <v>22.857142857142858</v>
-      </c>
-      <c r="M18" s="4">
-        <v>22.857142857142858</v>
-      </c>
-      <c r="N18" s="4">
-        <f>AVERAGE(M18:M33)</f>
-        <v>24.058816144994221</v>
-      </c>
-      <c r="O18" s="4">
-        <f>STDEV(M18:M33)/SQRT(COUNT(M18:M33))</f>
-        <v>4.434549293502454</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J18" s="3">
+        <f>AVERAGE(I18:I33)</f>
+        <v>1.9374999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -3083,22 +2823,8 @@
       <c r="I19">
         <v>2.6</v>
       </c>
-      <c r="J19">
-        <v>2.6</v>
-      </c>
-      <c r="K19">
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="L19" s="3">
-        <f t="shared" si="1"/>
-        <v>41.269841269841265</v>
-      </c>
-      <c r="M19" s="4">
-        <v>41.269841269841265</v>
-      </c>
-      <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -3126,22 +2852,8 @@
       <c r="I20">
         <v>2.8</v>
       </c>
-      <c r="J20">
-        <v>2.8</v>
-      </c>
-      <c r="K20">
-        <v>11.100000000000001</v>
-      </c>
-      <c r="L20" s="3">
-        <f t="shared" si="1"/>
-        <v>25.225225225225223</v>
-      </c>
-      <c r="M20" s="4">
-        <v>25.225225225225223</v>
-      </c>
-      <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -3169,22 +2881,8 @@
       <c r="I21">
         <v>1.9</v>
       </c>
-      <c r="J21">
-        <v>1.9</v>
-      </c>
-      <c r="K21">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="L21" s="3">
-        <f t="shared" si="1"/>
-        <v>21.59090909090909</v>
-      </c>
-      <c r="M21" s="4">
-        <v>21.59090909090909</v>
-      </c>
-      <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -3212,22 +2910,8 @@
       <c r="I22">
         <v>2.6</v>
       </c>
-      <c r="J22">
-        <v>2.6</v>
-      </c>
-      <c r="K22">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L22" s="3">
-        <f t="shared" si="1"/>
-        <v>26.530612244897959</v>
-      </c>
-      <c r="M22" s="4">
-        <v>26.530612244897959</v>
-      </c>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -3255,22 +2939,8 @@
       <c r="I23">
         <v>-0.7</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>12.4</v>
-      </c>
-      <c r="L23" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="4">
-        <v>0</v>
-      </c>
-      <c r="O23" s="4"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -3298,22 +2968,8 @@
       <c r="I24">
         <v>3.3</v>
       </c>
-      <c r="J24">
-        <v>3.3</v>
-      </c>
-      <c r="K24">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="L24" s="3">
-        <f t="shared" si="1"/>
-        <v>35.483870967741929</v>
-      </c>
-      <c r="M24" s="4">
-        <v>35.483870967741929</v>
-      </c>
-      <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -3341,22 +2997,8 @@
       <c r="I25">
         <v>0.9</v>
       </c>
-      <c r="J25">
-        <v>0.9</v>
-      </c>
-      <c r="K25">
-        <v>11</v>
-      </c>
-      <c r="L25" s="3">
-        <f t="shared" si="1"/>
-        <v>8.1818181818181817</v>
-      </c>
-      <c r="M25" s="4">
-        <v>8.1818181818181817</v>
-      </c>
-      <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -3384,22 +3026,8 @@
       <c r="I26">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J26">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K26">
-        <v>6</v>
-      </c>
-      <c r="L26" s="3">
-        <f t="shared" si="1"/>
-        <v>38.333333333333329</v>
-      </c>
-      <c r="M26" s="4">
-        <v>38.333333333333329</v>
-      </c>
-      <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -3427,22 +3055,8 @@
       <c r="I27">
         <v>2.9</v>
       </c>
-      <c r="J27">
-        <v>2.9</v>
-      </c>
-      <c r="K27">
-        <v>4.2</v>
-      </c>
-      <c r="L27" s="3">
-        <f t="shared" si="1"/>
-        <v>69.047619047619051</v>
-      </c>
-      <c r="M27" s="4">
-        <v>69.047619047619051</v>
-      </c>
-      <c r="O27" s="4"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -3470,22 +3084,8 @@
       <c r="I28">
         <v>3.5</v>
       </c>
-      <c r="J28">
-        <v>3.5</v>
-      </c>
-      <c r="K28">
-        <v>13.1</v>
-      </c>
-      <c r="L28" s="3">
-        <f t="shared" si="1"/>
-        <v>26.717557251908396</v>
-      </c>
-      <c r="M28" s="4">
-        <v>26.717557251908396</v>
-      </c>
-      <c r="O28" s="4"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -3513,22 +3113,8 @@
       <c r="I29">
         <v>4</v>
       </c>
-      <c r="J29">
-        <v>4</v>
-      </c>
-      <c r="K29">
-        <v>14.4</v>
-      </c>
-      <c r="L29" s="3">
-        <f t="shared" si="1"/>
-        <v>27.777777777777779</v>
-      </c>
-      <c r="M29" s="4">
-        <v>27.777777777777779</v>
-      </c>
-      <c r="O29" s="4"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -3556,22 +3142,8 @@
       <c r="I30">
         <v>1.6</v>
       </c>
-      <c r="J30">
-        <v>1.6</v>
-      </c>
-      <c r="K30">
-        <v>6.6</v>
-      </c>
-      <c r="L30" s="3">
-        <f t="shared" si="1"/>
-        <v>24.242424242424246</v>
-      </c>
-      <c r="M30" s="4">
-        <v>24.242424242424246</v>
-      </c>
-      <c r="O30" s="4"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -3599,21 +3171,8 @@
       <c r="I31">
         <v>-1.9</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31" s="3">
-        <v>0</v>
-      </c>
-      <c r="M31" s="4">
-        <v>0</v>
-      </c>
-      <c r="O31" s="4"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -3641,22 +3200,8 @@
       <c r="I32">
         <v>2.9</v>
       </c>
-      <c r="J32">
-        <v>2.9</v>
-      </c>
-      <c r="K32">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="L32" s="3">
-        <f t="shared" si="1"/>
-        <v>17.682926829268293</v>
-      </c>
-      <c r="M32" s="4">
-        <v>17.682926829268293</v>
-      </c>
-      <c r="O32" s="4"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -3684,22 +3229,8 @@
       <c r="I33">
         <v>-0.1</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>2.6</v>
-      </c>
-      <c r="L33" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="4">
-        <v>0</v>
-      </c>
-      <c r="O33" s="4"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -3727,30 +3258,12 @@
       <c r="I34">
         <v>8.5699999999999998E-2</v>
       </c>
-      <c r="J34">
-        <v>8.5699999999999998E-2</v>
-      </c>
-      <c r="K34">
-        <f>J34+J48</f>
-        <v>0.1477</v>
-      </c>
-      <c r="L34" s="3">
-        <f t="shared" si="1"/>
-        <v>58.023019634394046</v>
-      </c>
-      <c r="M34" s="4">
-        <v>58.023019634394046</v>
-      </c>
-      <c r="N34" s="4">
-        <f>AVERAGE(M34:M47)</f>
-        <v>52.752786403563626</v>
-      </c>
-      <c r="O34" s="4">
-        <f>STDEV(M34:M47)/SQRT(COUNT(M34:M47))</f>
-        <v>8.688116918158606</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J34" s="1">
+        <f>AVERAGE(I34:I47)</f>
+        <v>0.19080714285714293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -3778,23 +3291,8 @@
       <c r="I35">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="J35">
-        <v>7.4399999999999994E-2</v>
-      </c>
-      <c r="K35">
-        <f t="shared" ref="K35:K98" si="2">J35+J49</f>
-        <v>0.30130000000000001</v>
-      </c>
-      <c r="L35" s="3">
-        <f t="shared" si="1"/>
-        <v>24.692997012943906</v>
-      </c>
-      <c r="M35" s="4">
-        <v>24.692997012943906</v>
-      </c>
-      <c r="O35" s="4"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -3822,23 +3320,8 @@
       <c r="I36">
         <v>0.31459999999999999</v>
       </c>
-      <c r="J36">
-        <v>0.31459999999999999</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="2"/>
-        <v>0.50280000000000002</v>
-      </c>
-      <c r="L36" s="3">
-        <f t="shared" si="1"/>
-        <v>62.569610182975332</v>
-      </c>
-      <c r="M36" s="4">
-        <v>62.569610182975332</v>
-      </c>
-      <c r="O36" s="4"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -3866,23 +3349,8 @@
       <c r="I37">
         <v>0.40200000000000002</v>
       </c>
-      <c r="J37">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="2"/>
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="L37" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="M37" s="4">
-        <v>100</v>
-      </c>
-      <c r="O37" s="4"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -3910,23 +3378,8 @@
       <c r="I38">
         <v>0.1002</v>
       </c>
-      <c r="J38">
-        <v>0.1002</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="2"/>
-        <v>0.2475</v>
-      </c>
-      <c r="L38" s="3">
-        <f t="shared" si="1"/>
-        <v>40.484848484848484</v>
-      </c>
-      <c r="M38" s="4">
-        <v>40.484848484848484</v>
-      </c>
-      <c r="O38" s="4"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -3954,23 +3407,8 @@
       <c r="I39">
         <v>0.2984</v>
       </c>
-      <c r="J39">
-        <v>0.2984</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="2"/>
-        <v>0.30280000000000001</v>
-      </c>
-      <c r="L39" s="3">
-        <f t="shared" si="1"/>
-        <v>98.546895640686913</v>
-      </c>
-      <c r="M39" s="4">
-        <v>98.546895640686913</v>
-      </c>
-      <c r="O39" s="4"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -3998,23 +3436,8 @@
       <c r="I40">
         <v>0.53</v>
       </c>
-      <c r="J40">
-        <v>0.53</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="2"/>
-        <v>0.78620000000000001</v>
-      </c>
-      <c r="L40" s="3">
-        <f t="shared" si="1"/>
-        <v>67.41287204273722</v>
-      </c>
-      <c r="M40" s="4">
-        <v>67.41287204273722</v>
-      </c>
-      <c r="O40" s="4"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -4042,23 +3465,8 @@
       <c r="I41">
         <v>1.37E-2</v>
       </c>
-      <c r="J41">
-        <v>1.37E-2</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="2"/>
-        <v>4.2200000000000001E-2</v>
-      </c>
-      <c r="L41" s="3">
-        <f t="shared" si="1"/>
-        <v>32.464454976303323</v>
-      </c>
-      <c r="M41" s="4">
-        <v>32.464454976303323</v>
-      </c>
-      <c r="O41" s="4"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -4086,23 +3494,8 @@
       <c r="I42">
         <v>0.63859999999999995</v>
       </c>
-      <c r="J42">
-        <v>0.63859999999999995</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="2"/>
-        <v>0.93330000000000002</v>
-      </c>
-      <c r="L42" s="3">
-        <f t="shared" si="1"/>
-        <v>68.423872281152882</v>
-      </c>
-      <c r="M42" s="4">
-        <v>68.423872281152882</v>
-      </c>
-      <c r="O42" s="4"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -4130,22 +3523,8 @@
       <c r="I43">
         <v>-0.2581</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="2"/>
-        <v>0.2792</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="4">
-        <v>0</v>
-      </c>
-      <c r="O43" s="4"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -4173,23 +3552,8 @@
       <c r="I44">
         <v>0.1055</v>
       </c>
-      <c r="J44">
-        <v>0.1055</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="2"/>
-        <v>1.111</v>
-      </c>
-      <c r="L44" s="3">
-        <f t="shared" si="1"/>
-        <v>9.4959495949594963</v>
-      </c>
-      <c r="M44" s="4">
-        <v>9.4959495949594963</v>
-      </c>
-      <c r="O44" s="4"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -4217,23 +3581,8 @@
       <c r="I45">
         <v>0.17130000000000001</v>
       </c>
-      <c r="J45">
-        <v>0.17130000000000001</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="2"/>
-        <v>0.17130000000000001</v>
-      </c>
-      <c r="L45" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="M45" s="4">
-        <v>100</v>
-      </c>
-      <c r="O45" s="4"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -4261,23 +3610,8 @@
       <c r="I46">
         <v>0.14149999999999999</v>
       </c>
-      <c r="J46">
-        <v>0.14149999999999999</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="2"/>
-        <v>0.4859</v>
-      </c>
-      <c r="L46" s="3">
-        <f t="shared" si="1"/>
-        <v>29.121218357686761</v>
-      </c>
-      <c r="M46" s="4">
-        <v>29.121218357686761</v>
-      </c>
-      <c r="O46" s="4"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -4305,23 +3639,8 @@
       <c r="I47">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="J47">
-        <v>5.3499999999999999E-2</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="2"/>
-        <v>0.11310000000000001</v>
-      </c>
-      <c r="L47" s="3">
-        <f t="shared" si="1"/>
-        <v>47.303271441202469</v>
-      </c>
-      <c r="M47" s="4">
-        <v>47.303271441202469</v>
-      </c>
-      <c r="O47" s="4"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -4349,29 +3668,12 @@
       <c r="I48">
         <v>6.2E-2</v>
       </c>
-      <c r="J48">
-        <v>6.2E-2</v>
-      </c>
-      <c r="K48">
-        <v>0.1477</v>
-      </c>
-      <c r="L48" s="3">
-        <f t="shared" si="1"/>
-        <v>41.976980365605961</v>
-      </c>
-      <c r="M48" s="4">
-        <v>41.976980365605961</v>
-      </c>
-      <c r="N48" s="4">
-        <f>AVERAGE(M48:M61)</f>
-        <v>40.104356453579221</v>
-      </c>
-      <c r="O48" s="4">
-        <f>STDEV(M48:M61)/SQRT(COUNT(M48:M61))</f>
-        <v>8.2785076431617846</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J48" s="1">
+        <f>AVERAGE(I48:I61)</f>
+        <v>0.18308571428571427</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -4399,22 +3701,8 @@
       <c r="I49">
         <v>0.22689999999999999</v>
       </c>
-      <c r="J49">
-        <v>0.22689999999999999</v>
-      </c>
-      <c r="K49">
-        <v>0.30130000000000001</v>
-      </c>
-      <c r="L49" s="3">
-        <f>(J49/K49)*100</f>
-        <v>75.30700298705608</v>
-      </c>
-      <c r="M49" s="4">
-        <v>75.30700298705608</v>
-      </c>
-      <c r="O49" s="4"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -4442,22 +3730,8 @@
       <c r="I50">
         <v>0.18820000000000001</v>
       </c>
-      <c r="J50">
-        <v>0.18820000000000001</v>
-      </c>
-      <c r="K50">
-        <v>0.50280000000000002</v>
-      </c>
-      <c r="L50" s="3">
-        <f t="shared" si="1"/>
-        <v>37.430389817024661</v>
-      </c>
-      <c r="M50" s="4">
-        <v>37.430389817024661</v>
-      </c>
-      <c r="O50" s="4"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -4485,22 +3759,8 @@
       <c r="I51">
         <v>-0.2893</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="L51" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="4">
-        <v>0</v>
-      </c>
-      <c r="O51" s="4"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -4528,22 +3788,8 @@
       <c r="I52">
         <v>0.14729999999999999</v>
       </c>
-      <c r="J52">
-        <v>0.14729999999999999</v>
-      </c>
-      <c r="K52">
-        <v>0.2475</v>
-      </c>
-      <c r="L52" s="3">
-        <f t="shared" si="1"/>
-        <v>59.515151515151508</v>
-      </c>
-      <c r="M52" s="4">
-        <v>59.515151515151508</v>
-      </c>
-      <c r="O52" s="4"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -4571,22 +3817,8 @@
       <c r="I53">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="J53">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="K53">
-        <v>0.30280000000000001</v>
-      </c>
-      <c r="L53" s="3">
-        <f t="shared" si="1"/>
-        <v>1.4531043593130779</v>
-      </c>
-      <c r="M53" s="4">
-        <v>1.4531043593130779</v>
-      </c>
-      <c r="O53" s="4"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -4614,22 +3846,8 @@
       <c r="I54">
         <v>0.25619999999999998</v>
       </c>
-      <c r="J54">
-        <v>0.25619999999999998</v>
-      </c>
-      <c r="K54">
-        <v>0.78620000000000001</v>
-      </c>
-      <c r="L54" s="3">
-        <f t="shared" si="1"/>
-        <v>32.58712795726278</v>
-      </c>
-      <c r="M54" s="4">
-        <v>32.58712795726278</v>
-      </c>
-      <c r="O54" s="4"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -4657,22 +3875,8 @@
       <c r="I55">
         <v>2.8500000000000001E-2</v>
       </c>
-      <c r="J55">
-        <v>2.8500000000000001E-2</v>
-      </c>
-      <c r="K55">
-        <v>4.2200000000000001E-2</v>
-      </c>
-      <c r="L55" s="3">
-        <f t="shared" si="1"/>
-        <v>67.535545023696685</v>
-      </c>
-      <c r="M55" s="4">
-        <v>67.535545023696685</v>
-      </c>
-      <c r="O55" s="4"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -4700,22 +3904,8 @@
       <c r="I56">
         <v>0.29470000000000002</v>
       </c>
-      <c r="J56">
-        <v>0.29470000000000002</v>
-      </c>
-      <c r="K56">
-        <v>0.93330000000000002</v>
-      </c>
-      <c r="L56" s="3">
-        <f t="shared" si="1"/>
-        <v>31.576127718847104</v>
-      </c>
-      <c r="M56" s="4">
-        <v>31.576127718847104</v>
-      </c>
-      <c r="O56" s="4"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -4743,21 +3933,8 @@
       <c r="I57">
         <v>0.2792</v>
       </c>
-      <c r="J57">
-        <v>0.2792</v>
-      </c>
-      <c r="K57">
-        <v>0.2792</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="4">
-        <v>0</v>
-      </c>
-      <c r="O57" s="4"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -4785,22 +3962,8 @@
       <c r="I58">
         <v>1.0055000000000001</v>
       </c>
-      <c r="J58">
-        <v>1.0055000000000001</v>
-      </c>
-      <c r="K58">
-        <v>1.111</v>
-      </c>
-      <c r="L58" s="3">
-        <f>(J58/K58)*100</f>
-        <v>90.504050405040516</v>
-      </c>
-      <c r="M58" s="4">
-        <v>90.504050405040516</v>
-      </c>
-      <c r="O58" s="4"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -4828,22 +3991,8 @@
       <c r="I59">
         <v>-4.4400000000000002E-2</v>
       </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0.17130000000000001</v>
-      </c>
-      <c r="L59" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M59" s="4">
-        <v>0</v>
-      </c>
-      <c r="O59" s="4"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -4871,22 +4020,8 @@
       <c r="I60">
         <v>0.34439999999999998</v>
       </c>
-      <c r="J60">
-        <v>0.34439999999999998</v>
-      </c>
-      <c r="K60">
-        <v>0.4859</v>
-      </c>
-      <c r="L60" s="3">
-        <f t="shared" si="1"/>
-        <v>70.878781642313228</v>
-      </c>
-      <c r="M60" s="4">
-        <v>70.878781642313228</v>
-      </c>
-      <c r="O60" s="4"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -4914,22 +4049,8 @@
       <c r="I61">
         <v>5.96E-2</v>
       </c>
-      <c r="J61">
-        <v>5.96E-2</v>
-      </c>
-      <c r="K61">
-        <v>0.11310000000000001</v>
-      </c>
-      <c r="L61" s="3">
-        <f t="shared" si="1"/>
-        <v>52.696728558797524</v>
-      </c>
-      <c r="M61" s="4">
-        <v>52.696728558797524</v>
-      </c>
-      <c r="O61" s="4"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -4957,30 +4078,12 @@
       <c r="I62">
         <v>0.16669999999999999</v>
       </c>
-      <c r="J62">
-        <v>0.16669999999999999</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="2"/>
-        <v>0.82150000000000001</v>
-      </c>
-      <c r="L62" s="3">
-        <f t="shared" si="1"/>
-        <v>20.292148508825317</v>
-      </c>
-      <c r="M62" s="4">
-        <v>20.292148508825317</v>
-      </c>
-      <c r="N62" s="4">
-        <f>AVERAGE(M62:M75)</f>
-        <v>13.3813967665332</v>
-      </c>
-      <c r="O62" s="4">
-        <f>STDEV(M62:M75)/SQRT(COUNT(M62:M75))</f>
-        <v>5.6424440555402366</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J62" s="4">
+        <f>AVERAGE(I62:I75)</f>
+        <v>-6.6428571428571387E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -5008,23 +4111,9 @@
       <c r="I63">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="J63">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="2"/>
-        <v>0.12239999999999999</v>
-      </c>
-      <c r="L63" s="3">
-        <f t="shared" si="1"/>
-        <v>0.32679738562091504</v>
-      </c>
-      <c r="M63" s="4">
-        <v>0.32679738562091504</v>
-      </c>
-      <c r="O63" s="4"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -5052,23 +4141,9 @@
       <c r="I64">
         <v>-1.9699999999999999E-2</v>
       </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="2"/>
-        <v>0.2036</v>
-      </c>
-      <c r="L64" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M64" s="4">
-        <v>0</v>
-      </c>
-      <c r="O64" s="4"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -5096,23 +4171,9 @@
       <c r="I65">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="J65">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="2"/>
-        <v>0.32250000000000001</v>
-      </c>
-      <c r="L65" s="3">
-        <f t="shared" si="1"/>
-        <v>8.6821705426356584</v>
-      </c>
-      <c r="M65" s="4">
-        <v>8.6821705426356584</v>
-      </c>
-      <c r="O65" s="4"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -5140,24 +4201,9 @@
       <c r="I66">
         <v>-0.106</v>
       </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <f t="shared" si="2"/>
-        <v>0.21210000000000001</v>
-      </c>
-      <c r="L66" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="4">
-        <v>0</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="4"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -5185,24 +4231,9 @@
       <c r="I67">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="J67">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="K67">
-        <f t="shared" si="2"/>
-        <v>0.53710000000000002</v>
-      </c>
-      <c r="L67" s="3">
-        <f t="shared" ref="L67:L117" si="3">(J67/K67)*100</f>
-        <v>17.873766523924779</v>
-      </c>
-      <c r="M67" s="4">
-        <v>17.873766523924779</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="4"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -5230,24 +4261,9 @@
       <c r="I68">
         <v>-6.8500000000000005E-2</v>
       </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <f t="shared" si="2"/>
-        <v>0.1201</v>
-      </c>
-      <c r="L68" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M68" s="4">
-        <v>0</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="4"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -5275,24 +4291,9 @@
       <c r="I69">
         <v>8.5500000000000007E-2</v>
       </c>
-      <c r="J69">
-        <v>8.5500000000000007E-2</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="2"/>
-        <v>0.20929999999999999</v>
-      </c>
-      <c r="L69" s="3">
-        <f t="shared" si="3"/>
-        <v>40.850453893932162</v>
-      </c>
-      <c r="M69" s="4">
-        <v>40.850453893932162</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="4"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -5320,24 +4321,9 @@
       <c r="I70">
         <v>-6.3799999999999996E-2</v>
       </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="2"/>
-        <v>0.2185</v>
-      </c>
-      <c r="L70" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="4">
-        <v>0</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="4"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -5365,24 +4351,9 @@
       <c r="I71">
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="J71">
-        <v>7.4800000000000005E-2</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="2"/>
-        <v>0.27910000000000001</v>
-      </c>
-      <c r="L71" s="3">
-        <f t="shared" si="3"/>
-        <v>26.800429953421713</v>
-      </c>
-      <c r="M71" s="4">
-        <v>26.800429953421713</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="4"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -5410,24 +4381,9 @@
       <c r="I72">
         <v>-0.49359999999999998</v>
       </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="2"/>
-        <v>8.9800000000000005E-2</v>
-      </c>
-      <c r="L72" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M72" s="4">
-        <v>0</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="4"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -5455,23 +4411,9 @@
       <c r="I73">
         <v>-3.7999999999999999E-2</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L73" s="3">
-        <v>0</v>
-      </c>
-      <c r="M73" s="4">
-        <v>0</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="4"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -5499,24 +4441,9 @@
       <c r="I74">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J74">
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="2"/>
-        <v>0.86260000000000003</v>
-      </c>
-      <c r="L74" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0549501507071644</v>
-      </c>
-      <c r="M74" s="4">
-        <v>1.0549501507071644</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="4"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -5544,24 +4471,9 @@
       <c r="I75">
         <v>0.2361</v>
       </c>
-      <c r="J75">
-        <v>0.2361</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="2"/>
-        <v>0.33040000000000003</v>
-      </c>
-      <c r="L75" s="3">
-        <f t="shared" si="3"/>
-        <v>71.458837772397089</v>
-      </c>
-      <c r="M75" s="4">
-        <v>71.458837772397089</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="4"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -5589,29 +4501,16 @@
       <c r="I76">
         <v>0.65480000000000005</v>
       </c>
-      <c r="J76">
-        <v>0.65480000000000005</v>
+      <c r="J76" s="4">
+        <f t="shared" ref="J63:J117" si="0">AVERAGE(I76:I89)</f>
+        <v>0.25247857142857144</v>
       </c>
       <c r="K76">
-        <v>0.82150000000000001</v>
-      </c>
-      <c r="L76" s="3">
-        <f t="shared" si="3"/>
-        <v>79.707851491174679</v>
-      </c>
-      <c r="M76" s="4">
-        <v>79.707851491174679</v>
-      </c>
-      <c r="N76" s="4">
-        <f>AVERAGE(M76:M89)</f>
-        <v>79.475746090609647</v>
-      </c>
-      <c r="O76" s="4">
-        <f>STDEV(M76:M89)/SQRT(COUNT(M76:M89))</f>
-        <v>8.2554679741121788</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+        <f>J76/J62</f>
+        <v>-38.007526881720459</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -5639,23 +4538,9 @@
       <c r="I77">
         <v>0.122</v>
       </c>
-      <c r="J77">
-        <v>0.122</v>
-      </c>
-      <c r="K77">
-        <v>0.12239999999999999</v>
-      </c>
-      <c r="L77" s="3">
-        <f t="shared" si="3"/>
-        <v>99.673202614379079</v>
-      </c>
-      <c r="M77" s="4">
-        <v>99.673202614379079</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="4"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -5683,23 +4568,9 @@
       <c r="I78">
         <v>0.2036</v>
       </c>
-      <c r="J78">
-        <v>0.2036</v>
-      </c>
-      <c r="K78">
-        <v>0.2036</v>
-      </c>
-      <c r="L78" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="M78" s="4">
-        <v>100</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="4"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -5727,23 +4598,9 @@
       <c r="I79">
         <v>0.29449999999999998</v>
       </c>
-      <c r="J79">
-        <v>0.29449999999999998</v>
-      </c>
-      <c r="K79">
-        <v>0.32250000000000001</v>
-      </c>
-      <c r="L79" s="3">
-        <f t="shared" si="3"/>
-        <v>91.317829457364326</v>
-      </c>
-      <c r="M79" s="4">
-        <v>91.317829457364326</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="4"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -5771,23 +4628,9 @@
       <c r="I80">
         <v>0.21210000000000001</v>
       </c>
-      <c r="J80">
-        <v>0.21210000000000001</v>
-      </c>
-      <c r="K80">
-        <v>0.21210000000000001</v>
-      </c>
-      <c r="L80" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="M80" s="4">
-        <v>100</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="4"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -5815,23 +4658,9 @@
       <c r="I81">
         <v>0.44109999999999999</v>
       </c>
-      <c r="J81">
-        <v>0.44109999999999999</v>
-      </c>
-      <c r="K81">
-        <v>0.53710000000000002</v>
-      </c>
-      <c r="L81" s="3">
-        <f t="shared" si="3"/>
-        <v>82.126233476075214</v>
-      </c>
-      <c r="M81" s="4">
-        <v>82.126233476075214</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="4"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -5859,23 +4688,9 @@
       <c r="I82">
         <v>0.1201</v>
       </c>
-      <c r="J82">
-        <v>0.1201</v>
-      </c>
-      <c r="K82">
-        <v>0.1201</v>
-      </c>
-      <c r="L82" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="M82" s="4">
-        <v>100</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="4"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J82" s="4"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -5903,23 +4718,9 @@
       <c r="I83">
         <v>0.12379999999999999</v>
       </c>
-      <c r="J83">
-        <v>0.12379999999999999</v>
-      </c>
-      <c r="K83">
-        <v>0.20929999999999999</v>
-      </c>
-      <c r="L83" s="3">
-        <f t="shared" si="3"/>
-        <v>59.149546106067838</v>
-      </c>
-      <c r="M83" s="4">
-        <v>59.149546106067838</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="4"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -5947,23 +4748,9 @@
       <c r="I84">
         <v>0.2185</v>
       </c>
-      <c r="J84">
-        <v>0.2185</v>
-      </c>
-      <c r="K84">
-        <v>0.2185</v>
-      </c>
-      <c r="L84" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="M84" s="4">
-        <v>100</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="4"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -5991,23 +4778,9 @@
       <c r="I85">
         <v>0.20430000000000001</v>
       </c>
-      <c r="J85">
-        <v>0.20430000000000001</v>
-      </c>
-      <c r="K85">
-        <v>0.27910000000000001</v>
-      </c>
-      <c r="L85" s="3">
-        <f t="shared" si="3"/>
-        <v>73.199570046578287</v>
-      </c>
-      <c r="M85" s="4">
-        <v>73.199570046578287</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="4"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -6035,23 +4808,9 @@
       <c r="I86">
         <v>8.9800000000000005E-2</v>
       </c>
-      <c r="J86">
-        <v>8.9800000000000005E-2</v>
-      </c>
-      <c r="K86">
-        <v>8.9800000000000005E-2</v>
-      </c>
-      <c r="L86" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="M86" s="4">
-        <v>100</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="4"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -6079,22 +4838,9 @@
       <c r="I87">
         <v>-9.7699999999999995E-2</v>
       </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87" s="3">
-        <v>0</v>
-      </c>
-      <c r="M87" s="4">
-        <v>0</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="4"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J87" s="4"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -6122,23 +4868,9 @@
       <c r="I88">
         <v>0.85350000000000004</v>
       </c>
-      <c r="J88">
-        <v>0.85350000000000004</v>
-      </c>
-      <c r="K88">
-        <v>0.86260000000000003</v>
-      </c>
-      <c r="L88" s="3">
-        <f t="shared" si="3"/>
-        <v>98.945049849292829</v>
-      </c>
-      <c r="M88" s="4">
-        <v>98.945049849292829</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="4"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J88" s="4"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -6166,23 +4898,9 @@
       <c r="I89">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="J89">
-        <v>9.4299999999999995E-2</v>
-      </c>
-      <c r="K89">
-        <v>0.33040000000000003</v>
-      </c>
-      <c r="L89" s="3">
-        <f t="shared" si="3"/>
-        <v>28.5411622276029</v>
-      </c>
-      <c r="M89" s="4">
-        <v>28.5411622276029</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="4"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J89" s="4"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -6210,30 +4928,16 @@
       <c r="I90">
         <v>0.87360000000000004</v>
       </c>
-      <c r="J90">
-        <v>0.87360000000000004</v>
+      <c r="J90" s="4">
+        <f>AVERAGE(I90:I103)</f>
+        <v>0.7892285714285715</v>
       </c>
       <c r="K90">
-        <f t="shared" si="2"/>
-        <v>0.87360000000000004</v>
-      </c>
-      <c r="L90" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="M90" s="4">
-        <v>100</v>
-      </c>
-      <c r="N90" s="4">
-        <f>AVERAGE(M90:M103)</f>
-        <v>87.116279841435016</v>
-      </c>
-      <c r="O90" s="4">
-        <f>STDEV(M90:M103)/SQRT(COUNT(M90:M103))</f>
-        <v>3.0243009585212066</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+        <f>(J90/J104)</f>
+        <v>8.6463729556303335</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -6261,24 +4965,9 @@
       <c r="I91">
         <v>0.28520000000000001</v>
       </c>
-      <c r="J91">
-        <v>0.28520000000000001</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="2"/>
-        <v>0.28520000000000001</v>
-      </c>
-      <c r="L91" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="M91" s="4">
-        <v>100</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="4"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -6306,24 +4995,9 @@
       <c r="I92">
         <v>2.157</v>
       </c>
-      <c r="J92">
-        <v>2.157</v>
-      </c>
-      <c r="K92">
-        <f t="shared" si="2"/>
-        <v>2.2223000000000002</v>
-      </c>
-      <c r="L92" s="3">
-        <f t="shared" si="3"/>
-        <v>97.061602843900459</v>
-      </c>
-      <c r="M92" s="4">
-        <v>97.061602843900459</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="4"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -6351,24 +5025,9 @@
       <c r="I93">
         <v>0.59489999999999998</v>
       </c>
-      <c r="J93">
-        <v>0.59489999999999998</v>
-      </c>
-      <c r="K93">
-        <f t="shared" si="2"/>
-        <v>0.8639</v>
-      </c>
-      <c r="L93" s="3">
-        <f t="shared" si="3"/>
-        <v>68.86213682139136</v>
-      </c>
-      <c r="M93" s="4">
-        <v>68.86213682139136</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="4"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J93" s="4"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -6396,24 +5055,9 @@
       <c r="I94">
         <v>0.69689999999999996</v>
       </c>
-      <c r="J94">
-        <v>0.69689999999999996</v>
-      </c>
-      <c r="K94">
-        <f t="shared" si="2"/>
-        <v>0.82929999999999993</v>
-      </c>
-      <c r="L94" s="3">
-        <f t="shared" si="3"/>
-        <v>84.034728083926197</v>
-      </c>
-      <c r="M94" s="4">
-        <v>84.034728083926197</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="4"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -6441,24 +5085,9 @@
       <c r="I95">
         <v>0.76180000000000003</v>
       </c>
-      <c r="J95">
-        <v>0.76180000000000003</v>
-      </c>
-      <c r="K95">
-        <f t="shared" si="2"/>
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="L95" s="3">
-        <f t="shared" si="3"/>
-        <v>95.463659147869677</v>
-      </c>
-      <c r="M95" s="4">
-        <v>95.463659147869677</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="4"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J95" s="4"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -6486,24 +5115,9 @@
       <c r="I96">
         <v>0.27889999999999998</v>
       </c>
-      <c r="J96">
-        <v>0.27889999999999998</v>
-      </c>
-      <c r="K96">
-        <f t="shared" si="2"/>
-        <v>0.3402</v>
-      </c>
-      <c r="L96" s="3">
-        <f t="shared" si="3"/>
-        <v>81.981187536743079</v>
-      </c>
-      <c r="M96" s="4">
-        <v>81.981187536743079</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="4"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J96" s="4"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -6531,24 +5145,9 @@
       <c r="I97">
         <v>0.64249999999999996</v>
       </c>
-      <c r="J97">
-        <v>0.64249999999999996</v>
-      </c>
-      <c r="K97">
-        <f t="shared" si="2"/>
-        <v>0.68589999999999995</v>
-      </c>
-      <c r="L97" s="3">
-        <f t="shared" si="3"/>
-        <v>93.672547018515814</v>
-      </c>
-      <c r="M97" s="4">
-        <v>93.672547018515814</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="4"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J97" s="4"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -6576,24 +5175,9 @@
       <c r="I98">
         <v>0.83150000000000002</v>
       </c>
-      <c r="J98">
-        <v>0.83150000000000002</v>
-      </c>
-      <c r="K98">
-        <f t="shared" si="2"/>
-        <v>1.1476999999999999</v>
-      </c>
-      <c r="L98" s="3">
-        <f t="shared" si="3"/>
-        <v>72.44924631872442</v>
-      </c>
-      <c r="M98" s="4">
-        <v>72.44924631872442</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="4"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J98" s="4"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -6621,24 +5205,9 @@
       <c r="I99">
         <v>0.61350000000000005</v>
       </c>
-      <c r="J99">
-        <v>0.61350000000000005</v>
-      </c>
-      <c r="K99">
-        <f t="shared" ref="K99:K117" si="4">J99+J113</f>
-        <v>0.61350000000000005</v>
-      </c>
-      <c r="L99" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="M99" s="4">
-        <v>100</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="4"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J99" s="4"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -6666,24 +5235,9 @@
       <c r="I100">
         <v>1.0914999999999999</v>
       </c>
-      <c r="J100">
-        <v>1.0914999999999999</v>
-      </c>
-      <c r="K100">
-        <f t="shared" si="4"/>
-        <v>1.3964999999999999</v>
-      </c>
-      <c r="L100" s="3">
-        <f t="shared" si="3"/>
-        <v>78.159684926602225</v>
-      </c>
-      <c r="M100" s="4">
-        <v>78.159684926602225</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="4"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J100" s="4"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -6711,24 +5265,9 @@
       <c r="I101">
         <v>1.0296000000000001</v>
       </c>
-      <c r="J101">
-        <v>1.0296000000000001</v>
-      </c>
-      <c r="K101">
-        <f t="shared" si="4"/>
-        <v>1.0947</v>
-      </c>
-      <c r="L101" s="3">
-        <f t="shared" si="3"/>
-        <v>94.053165250753636</v>
-      </c>
-      <c r="M101" s="4">
-        <v>94.053165250753636</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="4"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J101" s="4"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -6756,24 +5295,9 @@
       <c r="I102">
         <v>0.55510000000000004</v>
       </c>
-      <c r="J102">
-        <v>0.55510000000000004</v>
-      </c>
-      <c r="K102">
-        <f t="shared" si="4"/>
-        <v>0.68390000000000006</v>
-      </c>
-      <c r="L102" s="3">
-        <f t="shared" si="3"/>
-        <v>81.166837256908906</v>
-      </c>
-      <c r="M102" s="4">
-        <v>81.166837256908906</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="4"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J102" s="4"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -6801,24 +5325,9 @@
       <c r="I103">
         <v>0.63719999999999999</v>
       </c>
-      <c r="J103">
-        <v>0.63719999999999999</v>
-      </c>
-      <c r="K103">
-        <f t="shared" si="4"/>
-        <v>0.87619999999999998</v>
-      </c>
-      <c r="L103" s="3">
-        <f t="shared" si="3"/>
-        <v>72.723122574754612</v>
-      </c>
-      <c r="M103" s="4">
-        <v>72.723122574754612</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" s="4"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J103" s="4"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -6846,29 +5355,12 @@
       <c r="I104">
         <v>-9.7299999999999998E-2</v>
       </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-      <c r="K104">
-        <v>0.87360000000000004</v>
-      </c>
-      <c r="L104" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M104" s="4">
-        <v>0</v>
-      </c>
-      <c r="N104" s="4">
-        <f>AVERAGE(M104:M117)</f>
-        <v>12.883720158564971</v>
-      </c>
-      <c r="O104" s="4">
-        <f>STDEV(M104:M117)/SQRT(COUNT(M104:M117))</f>
-        <v>3.0243009585211751</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J104" s="4">
+        <f>AVERAGE(I104:I117)</f>
+        <v>9.1278571428571417E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -6896,23 +5388,9 @@
       <c r="I105">
         <v>-0.2782</v>
       </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-      <c r="K105">
-        <v>0.28520000000000001</v>
-      </c>
-      <c r="L105" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M105" s="4">
-        <v>0</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="4"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J105" s="4"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -6940,23 +5418,9 @@
       <c r="I106">
         <v>6.5299999999999997E-2</v>
       </c>
-      <c r="J106">
-        <v>6.5299999999999997E-2</v>
-      </c>
-      <c r="K106">
-        <v>2.2223000000000002</v>
-      </c>
-      <c r="L106" s="3">
-        <f t="shared" si="3"/>
-        <v>2.9383971560995361</v>
-      </c>
-      <c r="M106" s="4">
-        <v>2.9383971560995361</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="4"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J106" s="4"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -6984,23 +5448,9 @@
       <c r="I107">
         <v>0.26900000000000002</v>
       </c>
-      <c r="J107">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="K107">
-        <v>0.8639</v>
-      </c>
-      <c r="L107" s="3">
-        <f t="shared" si="3"/>
-        <v>31.137863178608637</v>
-      </c>
-      <c r="M107" s="4">
-        <v>31.137863178608637</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="4"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J107" s="4"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -7028,23 +5478,9 @@
       <c r="I108">
         <v>0.13239999999999999</v>
       </c>
-      <c r="J108">
-        <v>0.13239999999999999</v>
-      </c>
-      <c r="K108">
-        <v>0.82929999999999993</v>
-      </c>
-      <c r="L108" s="3">
-        <f t="shared" si="3"/>
-        <v>15.965271916073798</v>
-      </c>
-      <c r="M108" s="4">
-        <v>15.965271916073798</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" s="4"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J108" s="4"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -7072,23 +5508,9 @@
       <c r="I109">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="J109">
-        <v>3.6200000000000003E-2</v>
-      </c>
-      <c r="K109">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="L109" s="3">
-        <f t="shared" si="3"/>
-        <v>4.5363408521303255</v>
-      </c>
-      <c r="M109" s="4">
-        <v>4.5363408521303255</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" s="4"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J109" s="4"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -7116,23 +5538,9 @@
       <c r="I110">
         <v>6.13E-2</v>
       </c>
-      <c r="J110">
-        <v>6.13E-2</v>
-      </c>
-      <c r="K110">
-        <v>0.3402</v>
-      </c>
-      <c r="L110" s="3">
-        <f t="shared" si="3"/>
-        <v>18.018812463256907</v>
-      </c>
-      <c r="M110" s="4">
-        <v>18.018812463256907</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" s="4"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -7160,23 +5568,9 @@
       <c r="I111">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="J111">
-        <v>4.3400000000000001E-2</v>
-      </c>
-      <c r="K111">
-        <v>0.68589999999999995</v>
-      </c>
-      <c r="L111" s="3">
-        <f t="shared" si="3"/>
-        <v>6.3274529814841811</v>
-      </c>
-      <c r="M111" s="4">
-        <v>6.3274529814841811</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" s="4"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J111" s="4"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -7204,23 +5598,9 @@
       <c r="I112">
         <v>0.31619999999999998</v>
       </c>
-      <c r="J112">
-        <v>0.31619999999999998</v>
-      </c>
-      <c r="K112">
-        <v>1.1476999999999999</v>
-      </c>
-      <c r="L112" s="3">
-        <f t="shared" si="3"/>
-        <v>27.550753681275598</v>
-      </c>
-      <c r="M112" s="4">
-        <v>27.550753681275598</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" s="4"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J112" s="4"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -7248,23 +5628,9 @@
       <c r="I113">
         <v>-8.3000000000000001E-3</v>
       </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <v>0.61350000000000005</v>
-      </c>
-      <c r="L113" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M113" s="4">
-        <v>0</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" s="4"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J113" s="4"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>12</v>
       </c>
@@ -7292,23 +5658,9 @@
       <c r="I114">
         <v>0.30499999999999999</v>
       </c>
-      <c r="J114">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="K114">
-        <v>1.3964999999999999</v>
-      </c>
-      <c r="L114" s="3">
-        <f t="shared" si="3"/>
-        <v>21.840315073397782</v>
-      </c>
-      <c r="M114" s="4">
-        <v>21.840315073397782</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" s="4"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J114" s="4"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -7336,23 +5688,9 @@
       <c r="I115">
         <v>6.5100000000000005E-2</v>
       </c>
-      <c r="J115">
-        <v>6.5100000000000005E-2</v>
-      </c>
-      <c r="K115">
-        <v>1.0947</v>
-      </c>
-      <c r="L115" s="3">
-        <f t="shared" si="3"/>
-        <v>5.9468347492463689</v>
-      </c>
-      <c r="M115" s="4">
-        <v>5.9468347492463689</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" s="4"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J115" s="4"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -7380,23 +5718,9 @@
       <c r="I116">
         <v>0.1288</v>
       </c>
-      <c r="J116">
-        <v>0.1288</v>
-      </c>
-      <c r="K116">
-        <v>0.68390000000000006</v>
-      </c>
-      <c r="L116" s="3">
-        <f t="shared" si="3"/>
-        <v>18.833162743091091</v>
-      </c>
-      <c r="M116" s="4">
-        <v>18.833162743091091</v>
-      </c>
-      <c r="N116" s="2"/>
-      <c r="O116" s="4"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J116" s="4"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>12</v>
       </c>
@@ -7424,602 +5748,471 @@
       <c r="I117">
         <v>0.23899999999999999</v>
       </c>
-      <c r="J117">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="K117">
-        <v>0.87619999999999998</v>
-      </c>
-      <c r="L117" s="3">
-        <f t="shared" si="3"/>
-        <v>27.276877425245377</v>
-      </c>
-      <c r="M117" s="4">
-        <v>27.276877425245377</v>
-      </c>
-      <c r="N117" s="2"/>
-      <c r="O117" s="4"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J117" s="4"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H118" s="1"/>
-      <c r="M118" s="3"/>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J118" s="2"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H119" s="1"/>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J119" s="2"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H120" s="1"/>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J120" s="2"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H121" s="1"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J121" s="2"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H122" s="1"/>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J122" s="2"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H123" s="1"/>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J123" s="2"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H124" s="1"/>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J124" s="2"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H125" s="1"/>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J125" s="2"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H126" s="1"/>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J126" s="2"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H127" s="1"/>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J127" s="2"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H128" s="1"/>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-    </row>
-    <row r="129" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J128" s="2"/>
+    </row>
+    <row r="129" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H129" s="1"/>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
-    </row>
-    <row r="130" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J129" s="2"/>
+    </row>
+    <row r="130" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H130" s="1"/>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-    </row>
-    <row r="131" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J130" s="2"/>
+    </row>
+    <row r="131" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H131" s="1"/>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
-    </row>
-    <row r="132" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J131" s="2"/>
+    </row>
+    <row r="132" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H132" s="1"/>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
-    </row>
-    <row r="133" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J132" s="2"/>
+    </row>
+    <row r="133" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H133" s="1"/>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-    </row>
-    <row r="134" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J133" s="2"/>
+    </row>
+    <row r="134" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H134" s="1"/>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
-    </row>
-    <row r="135" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J134" s="2"/>
+    </row>
+    <row r="135" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H135" s="1"/>
-      <c r="N135" s="2"/>
-      <c r="O135" s="2"/>
-    </row>
-    <row r="136" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J135" s="2"/>
+    </row>
+    <row r="136" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H136" s="1"/>
-      <c r="N136" s="2"/>
-      <c r="O136" s="2"/>
-    </row>
-    <row r="137" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J136" s="2"/>
+    </row>
+    <row r="137" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H137" s="1"/>
-      <c r="N137" s="2"/>
-      <c r="O137" s="2"/>
-    </row>
-    <row r="138" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J137" s="2"/>
+    </row>
+    <row r="138" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H138" s="1"/>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
-    </row>
-    <row r="139" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J138" s="2"/>
+    </row>
+    <row r="139" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H139" s="1"/>
-      <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
-    </row>
-    <row r="140" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J139" s="2"/>
+    </row>
+    <row r="140" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H140" s="1"/>
-      <c r="N140" s="2"/>
-      <c r="O140" s="2"/>
-    </row>
-    <row r="141" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J140" s="2"/>
+    </row>
+    <row r="141" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H141" s="1"/>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
-    </row>
-    <row r="142" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J141" s="2"/>
+    </row>
+    <row r="142" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H142" s="1"/>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
-    </row>
-    <row r="143" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J142" s="2"/>
+    </row>
+    <row r="143" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H143" s="1"/>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
-    </row>
-    <row r="144" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J143" s="2"/>
+    </row>
+    <row r="144" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H144" s="1"/>
-      <c r="N144" s="2"/>
-      <c r="O144" s="2"/>
-    </row>
-    <row r="145" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J144" s="2"/>
+    </row>
+    <row r="145" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H145" s="1"/>
-      <c r="N145" s="2"/>
-      <c r="O145" s="2"/>
-    </row>
-    <row r="146" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J145" s="2"/>
+    </row>
+    <row r="146" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H146" s="1"/>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2"/>
-    </row>
-    <row r="147" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J146" s="2"/>
+    </row>
+    <row r="147" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H147" s="1"/>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
-    </row>
-    <row r="148" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J147" s="2"/>
+    </row>
+    <row r="148" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H148" s="1"/>
-      <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
-    </row>
-    <row r="149" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J148" s="2"/>
+    </row>
+    <row r="149" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H149" s="1"/>
-      <c r="N149" s="2"/>
-      <c r="O149" s="2"/>
-    </row>
-    <row r="150" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J149" s="2"/>
+    </row>
+    <row r="150" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H150" s="1"/>
-      <c r="N150" s="2"/>
-      <c r="O150" s="2"/>
-    </row>
-    <row r="151" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J150" s="2"/>
+    </row>
+    <row r="151" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H151" s="1"/>
-      <c r="N151" s="2"/>
-      <c r="O151" s="2"/>
-    </row>
-    <row r="152" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J151" s="2"/>
+    </row>
+    <row r="152" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H152" s="1"/>
-      <c r="N152" s="2"/>
-      <c r="O152" s="2"/>
-    </row>
-    <row r="153" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J152" s="2"/>
+    </row>
+    <row r="153" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H153" s="1"/>
-      <c r="N153" s="2"/>
-      <c r="O153" s="2"/>
-    </row>
-    <row r="154" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J153" s="2"/>
+    </row>
+    <row r="154" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H154" s="1"/>
-      <c r="N154" s="2"/>
-      <c r="O154" s="2"/>
-    </row>
-    <row r="155" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J154" s="2"/>
+    </row>
+    <row r="155" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H155" s="1"/>
-      <c r="N155" s="2"/>
-      <c r="O155" s="2"/>
-    </row>
-    <row r="156" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J155" s="2"/>
+    </row>
+    <row r="156" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H156" s="1"/>
-      <c r="N156" s="2"/>
-      <c r="O156" s="2"/>
-    </row>
-    <row r="157" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J156" s="2"/>
+    </row>
+    <row r="157" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H157" s="1"/>
-      <c r="N157" s="2"/>
-      <c r="O157" s="2"/>
-    </row>
-    <row r="158" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J157" s="2"/>
+    </row>
+    <row r="158" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H158" s="1"/>
-      <c r="N158" s="2"/>
-      <c r="O158" s="2"/>
-    </row>
-    <row r="159" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J158" s="2"/>
+    </row>
+    <row r="159" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H159" s="1"/>
-      <c r="N159" s="2"/>
-      <c r="O159" s="2"/>
-    </row>
-    <row r="160" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J159" s="2"/>
+    </row>
+    <row r="160" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H160" s="1"/>
-      <c r="N160" s="2"/>
-      <c r="O160" s="2"/>
-    </row>
-    <row r="161" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J160" s="2"/>
+    </row>
+    <row r="161" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H161" s="1"/>
-      <c r="N161" s="2"/>
-      <c r="O161" s="2"/>
-    </row>
-    <row r="162" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J161" s="2"/>
+    </row>
+    <row r="162" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H162" s="1"/>
-      <c r="N162" s="2"/>
-      <c r="O162" s="2"/>
-    </row>
-    <row r="163" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J162" s="2"/>
+    </row>
+    <row r="163" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H163" s="1"/>
-      <c r="N163" s="2"/>
-      <c r="O163" s="2"/>
-    </row>
-    <row r="164" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J163" s="2"/>
+    </row>
+    <row r="164" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H164" s="1"/>
-      <c r="N164" s="2"/>
-      <c r="O164" s="2"/>
-    </row>
-    <row r="165" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J164" s="2"/>
+    </row>
+    <row r="165" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H165" s="1"/>
-      <c r="N165" s="2"/>
-      <c r="O165" s="2"/>
-    </row>
-    <row r="166" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J165" s="2"/>
+    </row>
+    <row r="166" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H166" s="1"/>
-      <c r="N166" s="2"/>
-      <c r="O166" s="2"/>
-    </row>
-    <row r="167" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J166" s="2"/>
+    </row>
+    <row r="167" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H167" s="1"/>
-      <c r="N167" s="2"/>
-      <c r="O167" s="2"/>
-    </row>
-    <row r="168" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J167" s="2"/>
+    </row>
+    <row r="168" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H168" s="1"/>
-      <c r="N168" s="2"/>
-      <c r="O168" s="2"/>
-    </row>
-    <row r="169" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J168" s="2"/>
+    </row>
+    <row r="169" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H169" s="1"/>
-      <c r="N169" s="2"/>
-      <c r="O169" s="2"/>
-    </row>
-    <row r="170" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J169" s="2"/>
+    </row>
+    <row r="170" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H170" s="1"/>
-      <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
-    </row>
-    <row r="171" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J170" s="2"/>
+    </row>
+    <row r="171" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H171" s="1"/>
-      <c r="N171" s="2"/>
-      <c r="O171" s="2"/>
-    </row>
-    <row r="172" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J171" s="2"/>
+    </row>
+    <row r="172" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H172" s="1"/>
-      <c r="N172" s="2"/>
-      <c r="O172" s="2"/>
-    </row>
-    <row r="173" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J172" s="2"/>
+    </row>
+    <row r="173" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H173" s="1"/>
-      <c r="N173" s="2"/>
-      <c r="O173" s="2"/>
-    </row>
-    <row r="174" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J173" s="2"/>
+    </row>
+    <row r="174" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H174" s="1"/>
-      <c r="N174" s="2"/>
-      <c r="O174" s="2"/>
-    </row>
-    <row r="175" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J174" s="2"/>
+    </row>
+    <row r="175" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H175" s="1"/>
-      <c r="N175" s="2"/>
-      <c r="O175" s="2"/>
-    </row>
-    <row r="176" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J175" s="2"/>
+    </row>
+    <row r="176" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H176" s="1"/>
-      <c r="N176" s="2"/>
-      <c r="O176" s="2"/>
-    </row>
-    <row r="177" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J176" s="2"/>
+    </row>
+    <row r="177" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H177" s="1"/>
-      <c r="N177" s="2"/>
-      <c r="O177" s="2"/>
-    </row>
-    <row r="178" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J177" s="2"/>
+    </row>
+    <row r="178" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H178" s="1"/>
-      <c r="N178" s="2"/>
-      <c r="O178" s="2"/>
-    </row>
-    <row r="179" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J178" s="2"/>
+    </row>
+    <row r="179" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H179" s="1"/>
-      <c r="N179" s="2"/>
-      <c r="O179" s="2"/>
-    </row>
-    <row r="180" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J179" s="2"/>
+    </row>
+    <row r="180" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H180" s="1"/>
-      <c r="N180" s="2"/>
-      <c r="O180" s="2"/>
-    </row>
-    <row r="181" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J180" s="2"/>
+    </row>
+    <row r="181" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H181" s="1"/>
-      <c r="N181" s="2"/>
-      <c r="O181" s="2"/>
-    </row>
-    <row r="182" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J181" s="2"/>
+    </row>
+    <row r="182" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H182" s="1"/>
-      <c r="N182" s="2"/>
-      <c r="O182" s="2"/>
-    </row>
-    <row r="183" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J182" s="2"/>
+    </row>
+    <row r="183" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H183" s="1"/>
-      <c r="N183" s="2"/>
-      <c r="O183" s="2"/>
-    </row>
-    <row r="184" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J183" s="2"/>
+    </row>
+    <row r="184" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H184" s="1"/>
-      <c r="N184" s="2"/>
-      <c r="O184" s="2"/>
-    </row>
-    <row r="185" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J184" s="2"/>
+    </row>
+    <row r="185" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H185" s="1"/>
-      <c r="N185" s="2"/>
-      <c r="O185" s="2"/>
-    </row>
-    <row r="186" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J185" s="2"/>
+    </row>
+    <row r="186" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H186" s="1"/>
-      <c r="N186" s="2"/>
-      <c r="O186" s="2"/>
-    </row>
-    <row r="187" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J186" s="2"/>
+    </row>
+    <row r="187" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H187" s="1"/>
-      <c r="N187" s="2"/>
-      <c r="O187" s="2"/>
-    </row>
-    <row r="188" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J187" s="2"/>
+    </row>
+    <row r="188" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H188" s="1"/>
-      <c r="N188" s="2"/>
-      <c r="O188" s="2"/>
-    </row>
-    <row r="189" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J188" s="2"/>
+    </row>
+    <row r="189" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H189" s="1"/>
-      <c r="N189" s="2"/>
-      <c r="O189" s="2"/>
-    </row>
-    <row r="190" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J189" s="2"/>
+    </row>
+    <row r="190" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H190" s="1"/>
-      <c r="N190" s="2"/>
-      <c r="O190" s="2"/>
-    </row>
-    <row r="191" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J190" s="2"/>
+    </row>
+    <row r="191" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H191" s="1"/>
-      <c r="N191" s="2"/>
-      <c r="O191" s="2"/>
-    </row>
-    <row r="192" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J191" s="2"/>
+    </row>
+    <row r="192" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H192" s="1"/>
-      <c r="N192" s="2"/>
-      <c r="O192" s="2"/>
-    </row>
-    <row r="193" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J192" s="2"/>
+    </row>
+    <row r="193" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H193" s="1"/>
-      <c r="N193" s="2"/>
-      <c r="O193" s="2"/>
-    </row>
-    <row r="194" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J193" s="2"/>
+    </row>
+    <row r="194" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H194" s="1"/>
-      <c r="N194" s="2"/>
-      <c r="O194" s="2"/>
-    </row>
-    <row r="195" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J194" s="2"/>
+    </row>
+    <row r="195" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H195" s="1"/>
-      <c r="N195" s="2"/>
-      <c r="O195" s="2"/>
-    </row>
-    <row r="196" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J195" s="2"/>
+    </row>
+    <row r="196" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H196" s="1"/>
-      <c r="N196" s="2"/>
-      <c r="O196" s="2"/>
-    </row>
-    <row r="197" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J196" s="2"/>
+    </row>
+    <row r="197" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H197" s="1"/>
-      <c r="N197" s="2"/>
-      <c r="O197" s="2"/>
-    </row>
-    <row r="198" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J197" s="2"/>
+    </row>
+    <row r="198" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H198" s="1"/>
-      <c r="N198" s="2"/>
-      <c r="O198" s="2"/>
-    </row>
-    <row r="199" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J198" s="2"/>
+    </row>
+    <row r="199" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H199" s="1"/>
-      <c r="N199" s="2"/>
-      <c r="O199" s="2"/>
-    </row>
-    <row r="200" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J199" s="2"/>
+    </row>
+    <row r="200" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H200" s="1"/>
-      <c r="N200" s="2"/>
-      <c r="O200" s="2"/>
-    </row>
-    <row r="201" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J200" s="2"/>
+    </row>
+    <row r="201" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H201" s="1"/>
-      <c r="N201" s="2"/>
-      <c r="O201" s="2"/>
-    </row>
-    <row r="202" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J201" s="2"/>
+    </row>
+    <row r="202" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H202" s="1"/>
-      <c r="N202" s="2"/>
-      <c r="O202" s="2"/>
-    </row>
-    <row r="203" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J202" s="2"/>
+    </row>
+    <row r="203" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H203" s="1"/>
-      <c r="N203" s="2"/>
-      <c r="O203" s="2"/>
-    </row>
-    <row r="204" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J203" s="2"/>
+    </row>
+    <row r="204" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H204" s="1"/>
-      <c r="N204" s="2"/>
-      <c r="O204" s="2"/>
-    </row>
-    <row r="205" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J204" s="2"/>
+    </row>
+    <row r="205" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H205" s="1"/>
-      <c r="N205" s="2"/>
-      <c r="O205" s="2"/>
-    </row>
-    <row r="206" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J205" s="2"/>
+    </row>
+    <row r="206" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H206" s="1"/>
-      <c r="N206" s="2"/>
-      <c r="O206" s="2"/>
-    </row>
-    <row r="207" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J206" s="2"/>
+    </row>
+    <row r="207" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H207" s="1"/>
-      <c r="N207" s="2"/>
-      <c r="O207" s="2"/>
-    </row>
-    <row r="208" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J207" s="2"/>
+    </row>
+    <row r="208" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H208" s="1"/>
-      <c r="N208" s="2"/>
-      <c r="O208" s="2"/>
-    </row>
-    <row r="209" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J208" s="2"/>
+    </row>
+    <row r="209" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H209" s="1"/>
-      <c r="N209" s="2"/>
-      <c r="O209" s="2"/>
-    </row>
-    <row r="210" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J209" s="2"/>
+    </row>
+    <row r="210" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H210" s="1"/>
-      <c r="N210" s="2"/>
-      <c r="O210" s="2"/>
-    </row>
-    <row r="211" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J210" s="2"/>
+    </row>
+    <row r="211" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H211" s="1"/>
-      <c r="N211" s="2"/>
-      <c r="O211" s="2"/>
-    </row>
-    <row r="212" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J211" s="2"/>
+    </row>
+    <row r="212" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H212" s="1"/>
-      <c r="N212" s="2"/>
-      <c r="O212" s="2"/>
-    </row>
-    <row r="213" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J212" s="2"/>
+    </row>
+    <row r="213" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H213" s="1"/>
-      <c r="N213" s="2"/>
-      <c r="O213" s="2"/>
-    </row>
-    <row r="214" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J213" s="2"/>
+    </row>
+    <row r="214" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H214" s="1"/>
-      <c r="N214" s="2"/>
-      <c r="O214" s="2"/>
-    </row>
-    <row r="215" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J214" s="2"/>
+    </row>
+    <row r="215" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H215" s="1"/>
-      <c r="N215" s="2"/>
-      <c r="O215" s="2"/>
-    </row>
-    <row r="216" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J215" s="2"/>
+    </row>
+    <row r="216" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H216" s="1"/>
-      <c r="N216" s="2"/>
-      <c r="O216" s="2"/>
-    </row>
-    <row r="217" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J216" s="2"/>
+    </row>
+    <row r="217" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H217" s="1"/>
-      <c r="N217" s="2"/>
-      <c r="O217" s="2"/>
-    </row>
-    <row r="218" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J217" s="2"/>
+    </row>
+    <row r="218" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H218" s="1"/>
-      <c r="N218" s="2"/>
-      <c r="O218" s="2"/>
-    </row>
-    <row r="219" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J218" s="2"/>
+    </row>
+    <row r="219" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H219" s="1"/>
-      <c r="N219" s="2"/>
-      <c r="O219" s="2"/>
-    </row>
-    <row r="220" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J219" s="2"/>
+    </row>
+    <row r="220" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H220" s="1"/>
-      <c r="N220" s="2"/>
-      <c r="O220" s="2"/>
-    </row>
-    <row r="221" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J220" s="2"/>
+    </row>
+    <row r="221" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H221" s="1"/>
-      <c r="N221" s="2"/>
-      <c r="O221" s="2"/>
-    </row>
-    <row r="222" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J221" s="2"/>
+    </row>
+    <row r="222" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H222" s="1"/>
-      <c r="N222" s="2"/>
-      <c r="O222" s="2"/>
-    </row>
-    <row r="223" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J222" s="2"/>
+    </row>
+    <row r="223" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H223" s="1"/>
-      <c r="N223" s="2"/>
-      <c r="O223" s="2"/>
-    </row>
-    <row r="224" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J223" s="2"/>
+    </row>
+    <row r="224" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H224" s="1"/>
-      <c r="N224" s="2"/>
-      <c r="O224" s="2"/>
-    </row>
-    <row r="225" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J224" s="2"/>
+    </row>
+    <row r="225" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H225" s="1"/>
-      <c r="N225" s="2"/>
-      <c r="O225" s="2"/>
-    </row>
-    <row r="226" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J225" s="2"/>
+    </row>
+    <row r="226" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H226" s="1"/>
-      <c r="N226" s="2"/>
-      <c r="O226" s="2"/>
-    </row>
-    <row r="227" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J226" s="2"/>
+    </row>
+    <row r="227" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H227" s="1"/>
-      <c r="N227" s="2"/>
-      <c r="O227" s="2"/>
-    </row>
-    <row r="228" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J227" s="2"/>
+    </row>
+    <row r="228" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H228" s="1"/>
-      <c r="N228" s="2"/>
-      <c r="O228" s="2"/>
-    </row>
-    <row r="229" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J228" s="2"/>
+    </row>
+    <row r="229" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H229" s="1"/>
-      <c r="N229" s="2"/>
-      <c r="O229" s="2"/>
-    </row>
-    <row r="230" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J229" s="2"/>
+    </row>
+    <row r="230" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H230" s="1"/>
-      <c r="N230" s="2"/>
-      <c r="O230" s="2"/>
-    </row>
-    <row r="231" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J230" s="2"/>
+    </row>
+    <row r="231" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H231" s="1"/>
-      <c r="N231" s="2"/>
-      <c r="O231" s="2"/>
-    </row>
-    <row r="232" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J231" s="2"/>
+    </row>
+    <row r="232" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H232" s="1"/>
-      <c r="N232" s="2"/>
-      <c r="O232" s="2"/>
-    </row>
-    <row r="233" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J232" s="2"/>
+    </row>
+    <row r="233" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H233" s="1"/>
-      <c r="N233" s="2"/>
-      <c r="O233" s="2"/>
+      <c r="J233" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I237">

--- a/feeding choice assay means and SE.xlsx
+++ b/feeding choice assay means and SE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ric/Documents/GitHub/Invasive_wrack/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1222C05E-0A0F-F24F-8183-A73F1E5A352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2496581B-FF43-9C47-BCC9-A1DF1CA75F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{F7008EFB-90C3-3C4B-AA36-7048E81055E9}"/>
+    <workbookView xWindow="12000" yWindow="500" windowWidth="25260" windowHeight="20500" activeTab="1" xr2:uid="{F7008EFB-90C3-3C4B-AA36-7048E81055E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="22">
   <si>
     <t>line_no.</t>
   </si>
@@ -101,6 +101,9 @@
   <si>
     <t>kelp/dev</t>
   </si>
+  <si>
+    <t>median_total_grazing_rate</t>
+  </si>
 </sst>
 </file>
 
@@ -108,7 +111,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -139,12 +142,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2247,15 +2251,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DC5D3B-FAA6-A743-844B-83B6B45D8D8C}">
-  <dimension ref="A1:K233"/>
+  <dimension ref="A1:L233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="L95" sqref="L95"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2289,8 +2293,11 @@
       <c r="K1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2327,7 +2334,7 @@
         <v>3.3806451612903228</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2356,7 +2363,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2385,7 +2392,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2414,7 +2421,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2443,7 +2450,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2472,7 +2479,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2501,7 +2508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2530,7 +2537,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2559,7 +2566,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2588,7 +2595,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2617,7 +2624,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2646,7 +2653,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2675,7 +2682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2704,7 +2711,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -3201,7 +3208,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -3230,7 +3237,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -3262,8 +3269,12 @@
         <f>AVERAGE(I34:I47)</f>
         <v>0.19080714285714293</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <f>MEDIAN(I34:I61)</f>
+        <v>0.14439999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -3292,7 +3303,7 @@
         <v>7.4399999999999994E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -3321,7 +3332,7 @@
         <v>0.31459999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -3350,7 +3361,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -3379,7 +3390,7 @@
         <v>0.1002</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -3408,7 +3419,7 @@
         <v>0.2984</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -3437,7 +3448,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -3466,7 +3477,7 @@
         <v>1.37E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -3495,7 +3506,7 @@
         <v>0.63859999999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -3524,7 +3535,7 @@
         <v>-0.2581</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -3553,7 +3564,7 @@
         <v>0.1055</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -3582,7 +3593,7 @@
         <v>0.17130000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -3611,7 +3622,7 @@
         <v>0.14149999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -3640,7 +3651,7 @@
         <v>5.3499999999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -3673,7 +3684,7 @@
         <v>0.18308571428571427</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -3702,7 +3713,7 @@
         <v>0.22689999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -3731,7 +3742,7 @@
         <v>0.18820000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -3760,7 +3771,7 @@
         <v>-0.2893</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -3789,7 +3800,7 @@
         <v>0.14729999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -3818,7 +3829,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -3847,7 +3858,7 @@
         <v>0.25619999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -3876,7 +3887,7 @@
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -3905,7 +3916,7 @@
         <v>0.29470000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -3934,7 +3945,7 @@
         <v>0.2792</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -3963,7 +3974,7 @@
         <v>1.0055000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -3992,7 +4003,7 @@
         <v>-4.4400000000000002E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -4021,7 +4032,7 @@
         <v>0.34439999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -4050,7 +4061,7 @@
         <v>5.96E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -4082,8 +4093,12 @@
         <f>AVERAGE(I62:I75)</f>
         <v>-6.6428571428571387E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L62" s="5">
+        <f>MEDIAN(I62:I89)</f>
+        <v>9.5149999999999998E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -4113,7 +4128,7 @@
       </c>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -4502,7 +4517,7 @@
         <v>0.65480000000000005</v>
       </c>
       <c r="J76" s="4">
-        <f t="shared" ref="J63:J117" si="0">AVERAGE(I76:I89)</f>
+        <f t="shared" ref="J76" si="0">AVERAGE(I76:I89)</f>
         <v>0.25247857142857144</v>
       </c>
       <c r="K76">
@@ -4630,7 +4645,7 @@
       </c>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -4660,7 +4675,7 @@
       </c>
       <c r="J81" s="4"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -4690,7 +4705,7 @@
       </c>
       <c r="J82" s="4"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -4720,7 +4735,7 @@
       </c>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -4750,7 +4765,7 @@
       </c>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -4780,7 +4795,7 @@
       </c>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -4810,7 +4825,7 @@
       </c>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -4840,7 +4855,7 @@
       </c>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -4870,7 +4885,7 @@
       </c>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -4900,7 +4915,7 @@
       </c>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -4936,8 +4951,12 @@
         <f>(J90/J104)</f>
         <v>8.6463729556303335</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="5">
+        <f>MEDIAN(I90:I117)</f>
+        <v>0.29510000000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -4967,7 +4986,7 @@
       </c>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -4997,7 +5016,7 @@
       </c>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -5027,7 +5046,7 @@
       </c>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -5057,7 +5076,7 @@
       </c>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -5087,7 +5106,7 @@
       </c>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>12</v>
       </c>
